--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
   <si>
     <t>Doi</t>
   </si>
@@ -304,6 +304,19 @@
   </si>
   <si>
     <t>2020-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease (COVID-19) caused by the novel severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has now spread to &amp;gt;200 countries posing a global public health concern.
+ Patients with comorbidity, such as hypertension suffer more severe infection with elevated mortality.
+ The development of effective antiviral drugs is in urgent need to treat COVID-19 patients.
+ Here, we report that calcium channel blockers (CCBs), a type of antihypertensive drug that is widely used in clinics, inhibited the post-entry replication events of SARS-CoV-2 in vitro, while no in vitro anti-SARS-CoV-2 effect was observed for the two other major types of antihypertensive drugs, namely, angiotensin-converting enzyme inhibitors and angiotensin II receptor blockers.
+ CCB combined with chloroquine showed a significantly enhanced anti-SARS-CoV-2 efficacy.
+ A retrospective clinical investigation on hospitalized COVID-19 patients with hypertension as the only comorbidity revealed that the CCB amlodipine besylate therapy was associated with a decreased case fatality rate.
+ The results from this study suggest that CCB administration to COVID-19 patients with hypertension as the comorbidity might improve the disease outcome.
+</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,  Yuan%Sun%NULL%2,  Yuan%Sun%NULL%0,  Haolong%Zeng%NULL%2,  Haolong%Zeng%NULL%0,  Qingxing%Wang%NULL%1,  Xiaming%Jiang%NULL%1,  Wei-Juan%Shang%NULL%1,  Yan%Wu%NULL%1,  Shufen%Li%NULL%1,  Yu-Lan%Zhang%NULL%1,  Zhao-Nian%Hao%NULL%1,  Hongbo%Chen%NULL%1,  Runming%Jin%NULL%2,  Runming%Jin%NULL%0,  Wei%Liu%NULL%0,  Hao%Li%lihao_1986@126.com%1,  Ke%Peng%pengke@wh.iov.cn%1,  Gengfu%Xiao%xiaogf@wh.iov.cn%2,  Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -857,10 +870,10 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
   <si>
     <t>Doi</t>
   </si>
@@ -304,19 +304,6 @@
   </si>
   <si>
     <t>2020-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The coronavirus disease (COVID-19) caused by the novel severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has now spread to &amp;gt;200 countries posing a global public health concern.
- Patients with comorbidity, such as hypertension suffer more severe infection with elevated mortality.
- The development of effective antiviral drugs is in urgent need to treat COVID-19 patients.
- Here, we report that calcium channel blockers (CCBs), a type of antihypertensive drug that is widely used in clinics, inhibited the post-entry replication events of SARS-CoV-2 in vitro, while no in vitro anti-SARS-CoV-2 effect was observed for the two other major types of antihypertensive drugs, namely, angiotensin-converting enzyme inhibitors and angiotensin II receptor blockers.
- CCB combined with chloroquine showed a significantly enhanced anti-SARS-CoV-2 efficacy.
- A retrospective clinical investigation on hospitalized COVID-19 patients with hypertension as the only comorbidity revealed that the CCB amlodipine besylate therapy was associated with a decreased case fatality rate.
- The results from this study suggest that CCB administration to COVID-19 patients with hypertension as the comorbidity might improve the disease outcome.
-</t>
-  </si>
-  <si>
-    <t>[Lei-Ke%Zhang%NULL%1,  Yuan%Sun%NULL%2,  Yuan%Sun%NULL%0,  Haolong%Zeng%NULL%2,  Haolong%Zeng%NULL%0,  Qingxing%Wang%NULL%1,  Xiaming%Jiang%NULL%1,  Wei-Juan%Shang%NULL%1,  Yan%Wu%NULL%1,  Shufen%Li%NULL%1,  Yu-Lan%Zhang%NULL%1,  Zhao-Nian%Hao%NULL%1,  Hongbo%Chen%NULL%1,  Runming%Jin%NULL%2,  Runming%Jin%NULL%0,  Wei%Liu%NULL%0,  Hao%Li%lihao_1986@126.com%1,  Ke%Peng%pengke@wh.iov.cn%1,  Gengfu%Xiao%xiaogf@wh.iov.cn%2,  Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
   </si>
 </sst>
 </file>
@@ -870,10 +857,10 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="83">
   <si>
     <t>Doi</t>
   </si>
@@ -304,6 +304,48 @@
   </si>
   <si>
     <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,  Zeljko%Kraljevic%NULL%1,  Thomas%Searle%NULL%1,  Rebecca%Bendayan%NULL%2,  O'Gallagher%Kevin%NULL%1,  Andrew%Pickles%NULL%1,  Amos%Folarin%NULL%1,  Lukasz%Roguski%NULL%1,  Kawsar%Noor%NULL%1,  Anthony%Shek%NULL%1,  Rosita%Zakeri%NULL%1,  Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,  James T.H.%Teo%jamesteo@nhs.net%2,  Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,  Samrachana%Adhikari%NULL%1,  Claudia%Pulgarin%NULL%1,  Andrea B.%Troxel%NULL%1,  Eduardo%Iturrate%NULL%1,  Stephen B.%Johnson%NULL%1,  Anaïs%Hausvater%NULL%1,  Jonathan D.%Newman%NULL%1,  Jeffrey S.%Berger%NULL%1,  Sripal%Bangalore%NULL%1,  Stuart D.%Katz%NULL%1,  Glenn I.%Fishman%NULL%1,  Dennis%Kunichoff%NULL%1,  Yu%Chen%NULL%1,  Gbenga%Ogedegbe%NULL%1,  Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,  Federico%Rea%NULL%1,  Monica%Ludergnani%NULL%2,  Monica%Ludergnani%NULL%0,  Giovanni%Apolone%NULL%1,  Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,  Sapan S.%Desai%NULL%2,  Sapan S.%Desai%NULL%0,  SreyRam%Kuy%NULL%2,  SreyRam%Kuy%NULL%0,  Timothy D.%Henry%NULL%1,  Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,   J.% Li%null%1,   S.% Yao%null%1,   Q.% Yu%null%1,   W.% Zhou%null%1,   X.% Mao%null%1,   H.% Li%null%1,   W.% Kang%null%1,   X.% Ouyang%null%1,   J.% Mei%null%1,   Q.% Zeng%null%1,   J.% Liu%null%1,   X.% Ma%null%1,   P.% Rong%null%1,   W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,  Lihua%Zhu%NULL%1,  Jingjing%Cai%NULL%1,  Fang%Lei%NULL%1,  Juan-Juan%Qin%NULL%1,  Jing%Xie%NULL%1,  Ye-Mao%Liu%NULL%1,  Yan-Ci%Zhao%NULL%1,  Xuewei%Huang%NULL%1,  Lijin%Lin%NULL%1,  Meng%Xia%NULL%1,  Ming-Ming%Chen%NULL%1,  Xu%Cheng%NULL%1,  Xiao%Zhang%NULL%1,  Deliang%Guo%NULL%1,  Yuanyuan%Peng%NULL%1,  Yan-Xiao%Ji%NULL%1,  Jing%Chen%NULL%1,  Zhi-Gang%She%NULL%1,  Yibin%Wang%NULL%1,  Qingbo%Xu%NULL%1,  Renfu%Tan%NULL%1,  Haitao%Wang%NULL%1,  Jun%Lin%NULL%1,  Pengcheng%Luo%NULL%1,  Shouzhi%Fu%NULL%2,  Hongbin%Cai%NULL%1,  Ping%Ye%NULL%1,  Bing%Xiao%NULL%1,  Weiming%Mao%NULL%1,  Liming%Liu%NULL%1,  Youqin%Yan%NULL%1,  Mingyu%Liu%NULL%1,  Manhua%Chen%NULL%1,  Xiao-Jing%Zhang%NULL%1,  Xinghuan%Wang%NULL%2,  Rhian M.%Touyz%NULL%1,  Jiahong%Xia%NULL%1,  Bing-Hong%Zhang%NULL%1,  Xiaodong%Huang%NULL%1,  Yufeng%Yuan%NULL%1,  Rohit%Loomba%NULL%1,  Peter P.%Liu%NULL%1,  Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,  Guohui%Xiao%NULL%1,  Juanjuan%Zhang%NULL%1,  Xing%He%NULL%1,  Min%Ou%NULL%1,  Jing%Bi%NULL%1,  Rongqing%Yang%NULL%1,  Wencheng%Di%NULL%1,  Zhaoqin%Wang%NULL%3,  Zigang%Li%NULL%1,  Hong%Gao%NULL%4,  Lei%Liu%NULL%5,  Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,  Yuan%Sun%NULL%2,  Yuan%Sun%NULL%0,  Haolong%Zeng%NULL%2,  Haolong%Zeng%NULL%0,  Qingxing%Wang%NULL%1,  Xiaming%Jiang%NULL%1,  Wei-Juan%Shang%NULL%1,  Yan%Wu%NULL%1,  Shufen%Li%NULL%1,  Yu-Lan%Zhang%NULL%1,  Zhao-Nian%Hao%NULL%1,  Hongbo%Chen%NULL%1,  Runming%Jin%NULL%2,  Runming%Jin%NULL%0,  Wei%Liu%NULL%3,  Hao%Li%lihao_1986@126.com%1,  Ke%Peng%pengke@wh.iov.cn%1,  Gengfu%Xiao%xiaogf@wh.iov.cn%2,  Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,  Yongzhen%Fan%NULL%1,  Ming%Chen%NULL%1,  Xiaoyan%Wu%NULL%1,  Lin%Zhang%NULL%1,  Tao%He%NULL%1,  Hairong%Wang%NULL%1,  Jing%Wan%NULL%1,  Xinghuan%Wang%NULL%0,  Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -637,6 +679,9 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -652,7 +697,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -662,6 +707,9 @@
       </c>
       <c r="H2" t="s">
         <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -678,7 +726,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -688,6 +736,9 @@
       </c>
       <c r="H3" t="s">
         <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -704,7 +755,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -714,6 +765,9 @@
       </c>
       <c r="H4" t="s">
         <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -730,7 +784,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -740,6 +794,9 @@
       </c>
       <c r="H5" t="s">
         <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -756,16 +813,19 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -793,6 +853,9 @@
       <c r="H7" t="s">
         <v>35</v>
       </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -808,7 +871,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -818,6 +881,9 @@
       </c>
       <c r="H8" t="s">
         <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -834,7 +900,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -844,6 +910,9 @@
       </c>
       <c r="H9" t="s">
         <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +929,7 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -870,6 +939,9 @@
       </c>
       <c r="H10" t="s">
         <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -897,6 +969,9 @@
       <c r="H11" t="s">
         <v>35</v>
       </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -923,6 +998,9 @@
       <c r="H12" t="s">
         <v>35</v>
       </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -938,7 +1016,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
@@ -948,6 +1026,9 @@
       </c>
       <c r="H13" t="s">
         <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="119">
   <si>
     <t>Doi</t>
   </si>
@@ -346,6 +346,114 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,  Yongzhen%Fan%NULL%1,  Ming%Chen%NULL%1,  Xiaoyan%Wu%NULL%1,  Lin%Zhang%NULL%1,  Tao%He%NULL%1,  Hairong%Wang%NULL%1,  Jing%Wan%NULL%1,  Xinghuan%Wang%NULL%0,  Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,   Zeljko%Kraljevic%NULL%1,   Thomas%Searle%NULL%1,   Rebecca%Bendayan%NULL%2,   O'Gallagher%Kevin%NULL%1,   Andrew%Pickles%NULL%1,   Amos%Folarin%NULL%1,   Lukasz%Roguski%NULL%1,   Kawsar%Noor%NULL%1,   Anthony%Shek%NULL%1,   Rosita%Zakeri%NULL%1,   Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,   James T.H.%Teo%jamesteo@nhs.net%2,   Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,   Samrachana%Adhikari%NULL%1,   Claudia%Pulgarin%NULL%1,   Andrea B.%Troxel%NULL%1,   Eduardo%Iturrate%NULL%1,   Stephen B.%Johnson%NULL%1,   Anaïs%Hausvater%NULL%1,   Jonathan D.%Newman%NULL%1,   Jeffrey S.%Berger%NULL%1,   Sripal%Bangalore%NULL%1,   Stuart D.%Katz%NULL%1,   Glenn I.%Fishman%NULL%1,   Dennis%Kunichoff%NULL%1,   Yu%Chen%NULL%1,   Gbenga%Ogedegbe%NULL%1,   Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,   Federico%Rea%NULL%1,   Monica%Ludergnani%NULL%2,   Monica%Ludergnani%NULL%0,   Giovanni%Apolone%NULL%1,   Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,   Sapan S.%Desai%NULL%2,   Sapan S.%Desai%NULL%0,   SreyRam%Kuy%NULL%2,   SreyRam%Kuy%NULL%0,   Timothy D.%Henry%NULL%1,   Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,    J.% Li%null%1,    S.% Yao%null%1,    Q.% Yu%null%1,    W.% Zhou%null%1,    X.% Mao%null%1,    H.% Li%null%1,    W.% Kang%null%1,    X.% Ouyang%null%1,    J.% Mei%null%1,    Q.% Zeng%null%1,    J.% Liu%null%1,    X.% Ma%null%1,    P.% Rong%null%1,    W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,   Lihua%Zhu%NULL%1,   Jingjing%Cai%NULL%1,   Fang%Lei%NULL%1,   Juan-Juan%Qin%NULL%1,   Jing%Xie%NULL%0,   Ye-Mao%Liu%NULL%1,   Yan-Ci%Zhao%NULL%1,   Xuewei%Huang%NULL%1,   Lijin%Lin%NULL%1,   Meng%Xia%NULL%1,   Ming-Ming%Chen%NULL%1,   Xu%Cheng%NULL%1,   Xiao%Zhang%NULL%1,   Deliang%Guo%NULL%1,   Yuanyuan%Peng%NULL%1,   Yan-Xiao%Ji%NULL%1,   Jing%Chen%NULL%0,   Zhi-Gang%She%NULL%1,   Yibin%Wang%NULL%1,   Qingbo%Xu%NULL%1,   Renfu%Tan%NULL%1,   Haitao%Wang%NULL%1,   Jun%Lin%NULL%1,   Pengcheng%Luo%NULL%1,   Shouzhi%Fu%NULL%2,   Hongbin%Cai%NULL%1,   Ping%Ye%NULL%1,   Bing%Xiao%NULL%1,   Weiming%Mao%NULL%1,   Liming%Liu%NULL%1,   Youqin%Yan%NULL%1,   Mingyu%Liu%NULL%1,   Manhua%Chen%NULL%1,   Xiao-Jing%Zhang%NULL%1,   Xinghuan%Wang%NULL%2,   Rhian M.%Touyz%NULL%1,   Jiahong%Xia%NULL%1,   Bing-Hong%Zhang%NULL%1,   Xiaodong%Huang%NULL%1,   Yufeng%Yuan%NULL%1,   Rohit%Loomba%NULL%1,   Peter P.%Liu%NULL%1,   Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,   Guohui%Xiao%NULL%1,   Juanjuan%Zhang%NULL%1,   Xing%He%NULL%1,   Min%Ou%NULL%1,   Jing%Bi%NULL%1,   Rongqing%Yang%NULL%1,   Wencheng%Di%NULL%1,   Zhaoqin%Wang%NULL%0,   Zigang%Li%NULL%1,   Hong%Gao%NULL%0,   Lei%Liu%NULL%0,   Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,   Yuan%Sun%NULL%2,   Yuan%Sun%NULL%0,   Haolong%Zeng%NULL%2,   Haolong%Zeng%NULL%0,   Qingxing%Wang%NULL%1,   Xiaming%Jiang%NULL%1,   Wei-Juan%Shang%NULL%1,   Yan%Wu%NULL%1,   Shufen%Li%NULL%1,   Yu-Lan%Zhang%NULL%1,   Zhao-Nian%Hao%NULL%1,   Hongbo%Chen%NULL%1,   Runming%Jin%NULL%2,   Runming%Jin%NULL%0,   Wei%Liu%NULL%0,   Hao%Li%lihao_1986@126.com%1,   Ke%Peng%pengke@wh.iov.cn%1,   Gengfu%Xiao%xiaogf@wh.iov.cn%2,   Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,   Yongzhen%Fan%NULL%1,   Ming%Chen%NULL%1,   Xiaoyan%Wu%NULL%1,   Lin%Zhang%NULL%1,   Tao%He%NULL%1,   Hairong%Wang%NULL%1,   Jing%Wan%NULL%1,   Xinghuan%Wang%NULL%0,   Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,    Zeljko%Kraljevic%NULL%1,    Thomas%Searle%NULL%1,    Rebecca%Bendayan%NULL%2,    O'Gallagher%Kevin%NULL%1,    Andrew%Pickles%NULL%1,    Amos%Folarin%NULL%1,    Lukasz%Roguski%NULL%1,    Kawsar%Noor%NULL%1,    Anthony%Shek%NULL%1,    Rosita%Zakeri%NULL%1,    Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,    James T.H.%Teo%jamesteo@nhs.net%2,    Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,    Samrachana%Adhikari%NULL%1,    Claudia%Pulgarin%NULL%1,    Andrea B.%Troxel%NULL%1,    Eduardo%Iturrate%NULL%1,    Stephen B.%Johnson%NULL%1,    Anaïs%Hausvater%NULL%1,    Jonathan D.%Newman%NULL%1,    Jeffrey S.%Berger%NULL%1,    Sripal%Bangalore%NULL%1,    Stuart D.%Katz%NULL%1,    Glenn I.%Fishman%NULL%1,    Dennis%Kunichoff%NULL%1,    Yu%Chen%NULL%2,    Gbenga%Ogedegbe%NULL%1,    Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,    Federico%Rea%NULL%1,    Monica%Ludergnani%NULL%2,    Monica%Ludergnani%NULL%0,    Giovanni%Apolone%NULL%1,    Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,    Sapan S.%Desai%NULL%2,    Sapan S.%Desai%NULL%0,    SreyRam%Kuy%NULL%2,    SreyRam%Kuy%NULL%0,    Timothy D.%Henry%NULL%1,    Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,     J.% Li%null%1,     S.% Yao%null%1,     Q.% Yu%null%1,     W.% Zhou%null%2,     X.% Mao%null%1,     H.% Li%null%1,     W.% Kang%null%1,     X.% Ouyang%null%1,     J.% Mei%null%1,     Q.% Zeng%null%1,     J.% Liu%null%1,     X.% Ma%null%1,     P.% Rong%null%1,     W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,    Lihua%Zhu%NULL%1,    Jingjing%Cai%NULL%1,    Fang%Lei%NULL%1,    Juan-Juan%Qin%NULL%1,    Jing%Xie%NULL%0,    Ye-Mao%Liu%NULL%1,    Yan-Ci%Zhao%NULL%1,    Xuewei%Huang%NULL%1,    Lijin%Lin%NULL%1,    Meng%Xia%NULL%1,    Ming-Ming%Chen%NULL%1,    Xu%Cheng%NULL%1,    Xiao%Zhang%NULL%1,    Deliang%Guo%NULL%1,    Yuanyuan%Peng%NULL%1,    Yan-Xiao%Ji%NULL%1,    Jing%Chen%NULL%0,    Zhi-Gang%She%NULL%1,    Yibin%Wang%NULL%1,    Qingbo%Xu%NULL%1,    Renfu%Tan%NULL%1,    Haitao%Wang%NULL%1,    Jun%Lin%NULL%1,    Pengcheng%Luo%NULL%1,    Shouzhi%Fu%NULL%2,    Hongbin%Cai%NULL%1,    Ping%Ye%NULL%1,    Bing%Xiao%NULL%1,    Weiming%Mao%NULL%1,    Liming%Liu%NULL%1,    Youqin%Yan%NULL%1,    Mingyu%Liu%NULL%1,    Manhua%Chen%NULL%1,    Xiao-Jing%Zhang%NULL%1,    Xinghuan%Wang%NULL%3,    Rhian M.%Touyz%NULL%1,    Jiahong%Xia%NULL%1,    Bing-Hong%Zhang%NULL%1,    Xiaodong%Huang%NULL%1,    Yufeng%Yuan%NULL%1,    Rohit%Loomba%NULL%1,    Peter P.%Liu%NULL%1,    Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,    Guohui%Xiao%NULL%1,    Juanjuan%Zhang%NULL%1,    Xing%He%NULL%1,    Min%Ou%NULL%1,    Jing%Bi%NULL%1,    Rongqing%Yang%NULL%1,    Wencheng%Di%NULL%1,    Zhaoqin%Wang%NULL%0,    Zigang%Li%NULL%1,    Hong%Gao%NULL%0,    Lei%Liu%NULL%0,    Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,    Yuan%Sun%NULL%2,    Yuan%Sun%NULL%0,    Haolong%Zeng%NULL%2,    Haolong%Zeng%NULL%0,    Qingxing%Wang%NULL%1,    Xiaming%Jiang%NULL%1,    Wei-Juan%Shang%NULL%1,    Yan%Wu%NULL%1,    Shufen%Li%NULL%1,    Yu-Lan%Zhang%NULL%1,    Zhao-Nian%Hao%NULL%1,    Hongbo%Chen%NULL%1,    Runming%Jin%NULL%2,    Runming%Jin%NULL%0,    Wei%Liu%NULL%0,    Hao%Li%lihao_1986@126.com%1,    Ke%Peng%pengke@wh.iov.cn%1,    Gengfu%Xiao%xiaogf@wh.iov.cn%2,    Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,    Yongzhen%Fan%NULL%1,    Ming%Chen%NULL%1,    Xiaoyan%Wu%NULL%1,    Lin%Zhang%NULL%1,    Tao%He%NULL%1,    Hairong%Wang%NULL%1,    Jing%Wan%NULL%1,    Xinghuan%Wang%NULL%0,    Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,     Zeljko%Kraljevic%NULL%1,     Thomas%Searle%NULL%1,     Rebecca%Bendayan%NULL%2,     O'Gallagher%Kevin%NULL%1,     Andrew%Pickles%NULL%1,     Amos%Folarin%NULL%1,     Lukasz%Roguski%NULL%1,     Kawsar%Noor%NULL%1,     Anthony%Shek%NULL%1,     Rosita%Zakeri%NULL%1,     Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,     James T.H.%Teo%jamesteo@nhs.net%2,     Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,     Samrachana%Adhikari%NULL%1,     Claudia%Pulgarin%NULL%1,     Andrea B.%Troxel%NULL%1,     Eduardo%Iturrate%NULL%1,     Stephen B.%Johnson%NULL%1,     Anaïs%Hausvater%NULL%1,     Jonathan D.%Newman%NULL%1,     Jeffrey S.%Berger%NULL%1,     Sripal%Bangalore%NULL%1,     Stuart D.%Katz%NULL%1,     Glenn I.%Fishman%NULL%1,     Dennis%Kunichoff%NULL%1,     Yu%Chen%NULL%2,     Gbenga%Ogedegbe%NULL%1,     Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,     Federico%Rea%NULL%1,     Monica%Ludergnani%NULL%2,     Monica%Ludergnani%NULL%0,     Giovanni%Apolone%NULL%1,     Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,     Sapan S.%Desai%NULL%2,     Sapan S.%Desai%NULL%0,     SreyRam%Kuy%NULL%2,     SreyRam%Kuy%NULL%0,     Timothy D.%Henry%NULL%1,     Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,      J.% Li%null%1,      S.% Yao%null%1,      Q.% Yu%null%1,      W.% Zhou%null%2,      X.% Mao%null%1,      H.% Li%null%1,      W.% Kang%null%1,      X.% Ouyang%null%1,      J.% Mei%null%1,      Q.% Zeng%null%1,      J.% Liu%null%1,      X.% Ma%null%1,      P.% Rong%null%1,      W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,     Lihua%Zhu%NULL%1,     Jingjing%Cai%NULL%1,     Fang%Lei%NULL%1,     Juan-Juan%Qin%NULL%1,     Jing%Xie%NULL%0,     Ye-Mao%Liu%NULL%1,     Yan-Ci%Zhao%NULL%1,     Xuewei%Huang%NULL%1,     Lijin%Lin%NULL%1,     Meng%Xia%NULL%1,     Ming-Ming%Chen%NULL%1,     Xu%Cheng%NULL%1,     Xiao%Zhang%NULL%1,     Deliang%Guo%NULL%1,     Yuanyuan%Peng%NULL%1,     Yan-Xiao%Ji%NULL%1,     Jing%Chen%NULL%0,     Zhi-Gang%She%NULL%1,     Yibin%Wang%NULL%1,     Qingbo%Xu%NULL%1,     Renfu%Tan%NULL%1,     Haitao%Wang%NULL%1,     Jun%Lin%NULL%1,     Pengcheng%Luo%NULL%1,     Shouzhi%Fu%NULL%3,     Hongbin%Cai%NULL%1,     Ping%Ye%NULL%1,     Bing%Xiao%NULL%1,     Weiming%Mao%NULL%1,     Liming%Liu%NULL%1,     Youqin%Yan%NULL%1,     Mingyu%Liu%NULL%1,     Manhua%Chen%NULL%1,     Xiao-Jing%Zhang%NULL%1,     Xinghuan%Wang%NULL%3,     Rhian M.%Touyz%NULL%1,     Jiahong%Xia%NULL%1,     Bing-Hong%Zhang%NULL%1,     Xiaodong%Huang%NULL%1,     Yufeng%Yuan%NULL%1,     Rohit%Loomba%NULL%1,     Peter P.%Liu%NULL%1,     Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,     Guohui%Xiao%NULL%1,     Juanjuan%Zhang%NULL%1,     Xing%He%NULL%1,     Min%Ou%NULL%1,     Jing%Bi%NULL%1,     Rongqing%Yang%NULL%1,     Wencheng%Di%NULL%1,     Zhaoqin%Wang%NULL%0,     Zigang%Li%NULL%1,     Hong%Gao%NULL%0,     Lei%Liu%NULL%0,     Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,     Yuan%Sun%NULL%2,     Yuan%Sun%NULL%0,     Haolong%Zeng%NULL%2,     Haolong%Zeng%NULL%0,     Qingxing%Wang%NULL%1,     Xiaming%Jiang%NULL%1,     Wei-Juan%Shang%NULL%1,     Yan%Wu%NULL%1,     Shufen%Li%NULL%1,     Yu-Lan%Zhang%NULL%1,     Zhao-Nian%Hao%NULL%1,     Hongbo%Chen%NULL%1,     Runming%Jin%NULL%2,     Runming%Jin%NULL%0,     Wei%Liu%NULL%0,     Hao%Li%lihao_1986@126.com%1,     Ke%Peng%pengke@wh.iov.cn%1,     Gengfu%Xiao%xiaogf@wh.iov.cn%2,     Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,     Yongzhen%Fan%NULL%1,     Ming%Chen%NULL%1,     Xiaoyan%Wu%NULL%1,     Lin%Zhang%NULL%1,     Tao%He%NULL%1,     Hairong%Wang%NULL%1,     Jing%Wan%NULL%1,     Xinghuan%Wang%NULL%0,     Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,      Zeljko%Kraljevic%NULL%1,      Thomas%Searle%NULL%1,      Rebecca%Bendayan%NULL%2,      O'Gallagher%Kevin%NULL%1,      Andrew%Pickles%NULL%1,      Amos%Folarin%NULL%1,      Lukasz%Roguski%NULL%1,      Kawsar%Noor%NULL%1,      Anthony%Shek%NULL%1,      Rosita%Zakeri%NULL%1,      Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,      James T.H.%Teo%jamesteo@nhs.net%2,      Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,      Samrachana%Adhikari%NULL%1,      Claudia%Pulgarin%NULL%1,      Andrea B.%Troxel%NULL%1,      Eduardo%Iturrate%NULL%1,      Stephen B.%Johnson%NULL%1,      Anaïs%Hausvater%NULL%1,      Jonathan D.%Newman%NULL%1,      Jeffrey S.%Berger%NULL%1,      Sripal%Bangalore%NULL%1,      Stuart D.%Katz%NULL%1,      Glenn I.%Fishman%NULL%1,      Dennis%Kunichoff%NULL%1,      Yu%Chen%NULL%2,      Gbenga%Ogedegbe%NULL%1,      Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,      Federico%Rea%NULL%1,      Monica%Ludergnani%NULL%2,      Monica%Ludergnani%NULL%0,      Giovanni%Apolone%NULL%1,      Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,      Sapan S.%Desai%NULL%2,      Sapan S.%Desai%NULL%0,      SreyRam%Kuy%NULL%2,      SreyRam%Kuy%NULL%0,      Timothy D.%Henry%NULL%1,      Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,       J.% Li%null%1,       S.% Yao%null%1,       Q.% Yu%null%1,       W.% Zhou%null%2,       X.% Mao%null%1,       H.% Li%null%1,       W.% Kang%null%1,       X.% Ouyang%null%1,       J.% Mei%null%1,       Q.% Zeng%null%1,       J.% Liu%null%1,       X.% Ma%null%1,       P.% Rong%null%1,       W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,      Lihua%Zhu%NULL%1,      Jingjing%Cai%NULL%1,      Fang%Lei%NULL%1,      Juan-Juan%Qin%NULL%1,      Jing%Xie%NULL%0,      Ye-Mao%Liu%NULL%1,      Yan-Ci%Zhao%NULL%1,      Xuewei%Huang%NULL%1,      Lijin%Lin%NULL%1,      Meng%Xia%NULL%1,      Ming-Ming%Chen%NULL%1,      Xu%Cheng%NULL%1,      Xiao%Zhang%NULL%1,      Deliang%Guo%NULL%1,      Yuanyuan%Peng%NULL%1,      Yan-Xiao%Ji%NULL%1,      Jing%Chen%NULL%0,      Zhi-Gang%She%NULL%1,      Yibin%Wang%NULL%1,      Qingbo%Xu%NULL%1,      Renfu%Tan%NULL%1,      Haitao%Wang%NULL%1,      Jun%Lin%NULL%1,      Pengcheng%Luo%NULL%1,      Shouzhi%Fu%NULL%3,      Hongbin%Cai%NULL%1,      Ping%Ye%NULL%1,      Bing%Xiao%NULL%1,      Weiming%Mao%NULL%1,      Liming%Liu%NULL%1,      Youqin%Yan%NULL%1,      Mingyu%Liu%NULL%1,      Manhua%Chen%NULL%1,      Xiao-Jing%Zhang%NULL%1,      Xinghuan%Wang%NULL%3,      Rhian M.%Touyz%NULL%1,      Jiahong%Xia%NULL%1,      Bing-Hong%Zhang%NULL%1,      Xiaodong%Huang%NULL%1,      Yufeng%Yuan%NULL%1,      Rohit%Loomba%NULL%1,      Peter P.%Liu%NULL%1,      Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,      Guohui%Xiao%NULL%1,      Juanjuan%Zhang%NULL%1,      Xing%He%NULL%1,      Min%Ou%NULL%1,      Jing%Bi%NULL%1,      Rongqing%Yang%NULL%1,      Wencheng%Di%NULL%1,      Zhaoqin%Wang%NULL%0,      Zigang%Li%NULL%1,      Hong%Gao%NULL%0,      Lei%Liu%NULL%0,      Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,      Yuan%Sun%NULL%2,      Yuan%Sun%NULL%0,      Haolong%Zeng%NULL%2,      Haolong%Zeng%NULL%0,      Qingxing%Wang%NULL%1,      Xiaming%Jiang%NULL%1,      Wei-Juan%Shang%NULL%1,      Yan%Wu%NULL%1,      Shufen%Li%NULL%1,      Yu-Lan%Zhang%NULL%1,      Zhao-Nian%Hao%NULL%1,      Hongbo%Chen%NULL%1,      Runming%Jin%NULL%2,      Runming%Jin%NULL%0,      Wei%Liu%NULL%0,      Hao%Li%lihao_1986@126.com%1,      Ke%Peng%pengke@wh.iov.cn%1,      Gengfu%Xiao%xiaogf@wh.iov.cn%2,      Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,      Yongzhen%Fan%NULL%1,      Ming%Chen%NULL%1,      Xiaoyan%Wu%NULL%1,      Lin%Zhang%NULL%1,      Tao%He%NULL%1,      Hairong%Wang%NULL%1,      Jing%Wan%NULL%1,      Xinghuan%Wang%NULL%0,      Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -697,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -726,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -755,7 +863,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -784,7 +892,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -813,7 +921,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -871,7 +979,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -900,7 +1008,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -929,7 +1037,7 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -970,7 +1078,7 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1016,7 +1124,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="151">
   <si>
     <t>Doi</t>
   </si>
@@ -454,6 +454,117 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,      Yongzhen%Fan%NULL%1,      Ming%Chen%NULL%1,      Xiaoyan%Wu%NULL%1,      Lin%Zhang%NULL%1,      Tao%He%NULL%1,      Hairong%Wang%NULL%1,      Jing%Wan%NULL%1,      Xinghuan%Wang%NULL%0,      Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,       Zeljko%Kraljevic%NULL%1,       Thomas%Searle%NULL%1,       Rebecca%Bendayan%NULL%2,       O'Gallagher%Kevin%NULL%1,       Andrew%Pickles%NULL%1,       Amos%Folarin%NULL%1,       Lukasz%Roguski%NULL%1,       Kawsar%Noor%NULL%1,       Anthony%Shek%NULL%1,       Rosita%Zakeri%NULL%1,       Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,       James T.H.%Teo%jamesteo@nhs.net%2,       Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,       Samrachana%Adhikari%NULL%1,       Claudia%Pulgarin%NULL%1,       Andrea B.%Troxel%NULL%1,       Eduardo%Iturrate%NULL%1,       Stephen B.%Johnson%NULL%1,       Anaïs%Hausvater%NULL%1,       Jonathan D.%Newman%NULL%1,       Jeffrey S.%Berger%NULL%1,       Sripal%Bangalore%NULL%1,       Stuart D.%Katz%NULL%1,       Glenn I.%Fishman%NULL%1,       Dennis%Kunichoff%NULL%1,       Yu%Chen%NULL%1,       Gbenga%Ogedegbe%NULL%1,       Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,       Federico%Rea%NULL%1,       Monica%Ludergnani%NULL%2,       Monica%Ludergnani%NULL%0,       Giovanni%Apolone%NULL%1,       Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,       Sapan S.%Desai%NULL%2,       Sapan S.%Desai%NULL%0,       SreyRam%Kuy%NULL%2,       SreyRam%Kuy%NULL%0,       Timothy D.%Henry%NULL%1,       Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,        J.% Li%null%1,        S.% Yao%null%1,        Q.% Yu%null%1,        W.% Zhou%null%1,        X.% Mao%null%1,        H.% Li%null%1,        W.% Kang%null%1,        X.% Ouyang%null%1,        J.% Mei%null%1,        Q.% Zeng%null%1,        J.% Liu%null%1,        X.% Ma%null%1,        P.% Rong%null%1,        W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>"Effects of Angiotensin II Receptor Blockers and ACE (Angiotensin-Converting Enzyme) Inhibitors on Virus Infection, Inflammatory Status, and Clinical Outcomes in Patients With COVID-19 and Hypertension"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n            With the capability of inducing elevated expression of ACE2 (angiotensin-converting enzyme 2), the cellular receptor for severe acute respiratory syndrome coronavirus 2, angiotensin II receptor blockers (ARBs) or ACE inhibitors treatment may have a controversial role in both facilitating virus infection and reducing pathogenic inflammation.
+ We aimed to evaluate the effects of ARBs\/ACE inhibitors on coronavirus disease 2019 (COVID-19) in a retrospective, single-center study.
+ One hundred twenty-six patients with COVID-19 and preexisting hypertension at Hubei Provincial Hospital of Traditional Chinese Medicine in Wuhan from January 5 to February 22, 2020, were retrospectively allocated to ARBs\/ACE inhibitors group (n=43) and non-ARBs\/ACE inhibitors group (n=83) according to their antihypertensive medication.
+ One hundred twenty-five age- and sex-matched patients with COVID-19 without hypertension were randomly selected as nonhypertension controls.
+ In addition, the medication history of 1942 patients with hypertension that were admitted to Hubei Provincial Hospital of Traditional Chinese Medicine from November 1 to December 31, 2019, before the COVID-19 outbreak were also reviewed for external comparison.
+ Epidemiological, demographic, clinical, and laboratory data were collected, analyzed, and compared between these groups.
+ The frequency of ARBs\/ACE inhibitors usage in patients with hypertension with or without COVID-19 were comparable.
+ Among patients with COVID-19 and hypertension, those received either ARBs\/ACE inhibitors or non-ARBs\/ACE inhibitors had comparable blood pressure.
+ However, ARBs\/ACE inhibitors group had significantly lower concentrations of hs-CRP (high-sensitivity C-reactive protein;\n            P\n            =0.049) and PCT (procalcitonin,\n            P\n            =0.008).
+ Furthermore, a lower proportion of critical patients (9.3% versus 22.9%;\n            P\n            =0.061) and a lower death rate (4.7% versus 13.3%;\n            P\n            =0.216) were observed in ARBs\/ACE inhibitors group than non-ARBs\/ACE inhibitors group, although these differences failed to reach statistical significance.
+ Our findings thus support the use of ARBs\/ACE inhibitors in patients with COVID-19 and preexisting hypertension.
+\n          </t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0, Zihu%Tan%xref no email%0, Ling%Zhou%xref no email%0, Min%Yang%xref no email%0, Lang%Peng%xref no email%0, Jinjin%Liu%xref no email%0, Jingling%Cai%xref no email%0, Ru%Yang%xref no email%0, Junyan%Han%xref no email%0, Yafei%Huang%xref no email%0, Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,       Lihua%Zhu%NULL%1,       Jingjing%Cai%NULL%1,       Fang%Lei%NULL%1,       Juan-Juan%Qin%NULL%1,       Jing%Xie%NULL%0,       Ye-Mao%Liu%NULL%1,       Yan-Ci%Zhao%NULL%1,       Xuewei%Huang%NULL%1,       Lijin%Lin%NULL%1,       Meng%Xia%NULL%1,       Ming-Ming%Chen%NULL%1,       Xu%Cheng%NULL%1,       Xiao%Zhang%NULL%1,       Deliang%Guo%NULL%1,       Yuanyuan%Peng%NULL%1,       Yan-Xiao%Ji%NULL%1,       Jing%Chen%NULL%0,       Zhi-Gang%She%NULL%1,       Yibin%Wang%NULL%1,       Qingbo%Xu%NULL%1,       Renfu%Tan%NULL%1,       Haitao%Wang%NULL%1,       Jun%Lin%NULL%1,       Pengcheng%Luo%NULL%1,       Shouzhi%Fu%NULL%2,       Hongbin%Cai%NULL%1,       Ping%Ye%NULL%1,       Bing%Xiao%NULL%1,       Weiming%Mao%NULL%1,       Liming%Liu%NULL%1,       Youqin%Yan%NULL%1,       Mingyu%Liu%NULL%1,       Manhua%Chen%NULL%1,       Xiao-Jing%Zhang%NULL%1,       Xinghuan%Wang%NULL%2,       Rhian M.%Touyz%NULL%1,       Jiahong%Xia%NULL%1,       Bing-Hong%Zhang%NULL%1,       Xiaodong%Huang%NULL%1,       Yufeng%Yuan%NULL%1,       Rohit%Loomba%NULL%1,       Peter P.%Liu%NULL%1,       Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,       Guohui%Xiao%NULL%1,       Juanjuan%Zhang%NULL%1,       Xing%He%NULL%1,       Min%Ou%NULL%1,       Jing%Bi%NULL%1,       Rongqing%Yang%NULL%1,       Wencheng%Di%NULL%1,       Zhaoqin%Wang%NULL%0,       Zigang%Li%NULL%1,       Hong%Gao%NULL%0,       Lei%Liu%NULL%0,       Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,       Yuan%Sun%NULL%2,       Yuan%Sun%NULL%0,       Haolong%Zeng%NULL%2,       Haolong%Zeng%NULL%0,       Qingxing%Wang%NULL%1,       Xiaming%Jiang%NULL%1,       Wei-Juan%Shang%NULL%1,       Yan%Wu%NULL%1,       Shufen%Li%NULL%1,       Yu-Lan%Zhang%NULL%1,       Zhao-Nian%Hao%NULL%1,       Hongbo%Chen%NULL%1,       Runming%Jin%NULL%2,       Runming%Jin%NULL%0,       Wei%Liu%NULL%0,       Hao%Li%lihao_1986@126.com%1,       Ke%Peng%pengke@wh.iov.cn%1,       Gengfu%Xiao%xiaogf@wh.iov.cn%2,       Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>"Structure of dimeric full-length human ACE2 in complex with B&lt;sup&gt;0&lt;\/sup&gt;AT1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"AbstractAngiotensin-converting enzyme 2 (ACE2) is the surface receptor for SARS coronavirus (SARS-CoV), directly interacting with the spike glycoprotein (S protein).
+ ACE2 is also suggested to be the receptor for the new coronavirus (2019-nCoV), which is causing a serious epidemic in China manifested with severe respiratory syndrome.
+ B0AT1 (SLC6A19) is a neutral amino acid transporter whose surface expression in intestinal cells requires ACE2. Here we present the 2.9 \u00c5 resolution cryo-EM structure of full-length human ACE2 in complex with B0AT1. The complex, assembled as a dimer of ACE2-B0AT1 heterodimers, exhibits open and closed conformations due to the shifts of the peptidase domains (PDs) of ACE2. A newly resolved Collectrin-like domain (CLD) on ACE2 mediates homo-dimerization.
+ Structural modelling suggests that the ACE2-B0AT1 complex can bind two S proteins simultaneously, providing important clues to the molecular basis for coronavirus recognition and infection.
+</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1, Yuanyuan%Zhang%xref no email%1, Yaning%Li%xref no email%1, Lu%Xia%xref no email%1, Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-26</t>
+  </si>
+  <si>
+    <t>"Association of Renin-Angiotensin System Inhibitors With Severity or Risk of Death in Patients With Hypertension Hospitalized for Coronavirus Disease 2019 (COVID-19) Infection in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0, Xiufang%Wang%xref no email%0, Jian%Chen%xref no email%0, Hongmei%Zhang%xref no email%0, Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,       Yongzhen%Fan%NULL%1,       Ming%Chen%NULL%1,       Xiaoyan%Wu%NULL%1,       Lin%Zhang%NULL%1,       Tao%He%NULL%1,       Hairong%Wang%NULL%1,       Jing%Wan%NULL%1,       Xinghuan%Wang%NULL%0,       Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,        Zeljko%Kraljevic%NULL%1,        Thomas%Searle%NULL%1,        Rebecca%Bendayan%NULL%2,        O'Gallagher%Kevin%NULL%1,        Andrew%Pickles%NULL%1,        Amos%Folarin%NULL%1,        Lukasz%Roguski%NULL%1,        Kawsar%Noor%NULL%1,        Anthony%Shek%NULL%1,        Rosita%Zakeri%NULL%1,        Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,        James T.H.%Teo%jamesteo@nhs.net%2,        Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,        Samrachana%Adhikari%NULL%1,        Claudia%Pulgarin%NULL%1,        Andrea B.%Troxel%NULL%1,        Eduardo%Iturrate%NULL%1,        Stephen B.%Johnson%NULL%1,        Anaïs%Hausvater%NULL%1,        Jonathan D.%Newman%NULL%1,        Jeffrey S.%Berger%NULL%1,        Sripal%Bangalore%NULL%1,        Stuart D.%Katz%NULL%1,        Glenn I.%Fishman%NULL%1,        Dennis%Kunichoff%NULL%1,        Yu%Chen%NULL%1,        Gbenga%Ogedegbe%NULL%1,        Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,        Federico%Rea%NULL%1,        Monica%Ludergnani%NULL%2,        Monica%Ludergnani%NULL%0,        Giovanni%Apolone%NULL%1,        Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,        Sapan S.%Desai%NULL%2,        Sapan S.%Desai%NULL%0,        SreyRam%Kuy%NULL%2,        SreyRam%Kuy%NULL%0,        Timothy D.%Henry%NULL%1,        Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,         J.% Li%null%1,         S.% Yao%null%1,         Q.% Yu%null%1,         W.% Zhou%null%1,         X.% Mao%null%1,         H.% Li%null%1,         W.% Kang%null%1,         X.% Ouyang%null%1,         J.% Mei%null%1,         Q.% Zeng%null%1,         J.% Liu%null%1,         X.% Ma%null%1,         P.% Rong%null%1,         W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,  Zihu%Tan%xref no email%0,  Ling%Zhou%xref no email%0,  Min%Yang%xref no email%0,  Lang%Peng%xref no email%0,  Jinjin%Liu%xref no email%0,  Jingling%Cai%xref no email%0,  Ru%Yang%xref no email%0,  Junyan%Han%xref no email%0,  Yafei%Huang%xref no email%0,  Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,        Lihua%Zhu%NULL%1,        Jingjing%Cai%NULL%1,        Fang%Lei%NULL%1,        Juan-Juan%Qin%NULL%1,        Jing%Xie%NULL%0,        Ye-Mao%Liu%NULL%1,        Yan-Ci%Zhao%NULL%1,        Xuewei%Huang%NULL%1,        Lijin%Lin%NULL%1,        Meng%Xia%NULL%1,        Ming-Ming%Chen%NULL%1,        Xu%Cheng%NULL%1,        Xiao%Zhang%NULL%1,        Deliang%Guo%NULL%1,        Yuanyuan%Peng%NULL%1,        Yan-Xiao%Ji%NULL%1,        Jing%Chen%NULL%0,        Zhi-Gang%She%NULL%1,        Yibin%Wang%NULL%1,        Qingbo%Xu%NULL%1,        Renfu%Tan%NULL%1,        Haitao%Wang%NULL%1,        Jun%Lin%NULL%1,        Pengcheng%Luo%NULL%1,        Shouzhi%Fu%NULL%2,        Hongbin%Cai%NULL%1,        Ping%Ye%NULL%1,        Bing%Xiao%NULL%1,        Weiming%Mao%NULL%1,        Liming%Liu%NULL%1,        Youqin%Yan%NULL%1,        Mingyu%Liu%NULL%1,        Manhua%Chen%NULL%1,        Xiao-Jing%Zhang%NULL%1,        Xinghuan%Wang%NULL%2,        Rhian M.%Touyz%NULL%1,        Jiahong%Xia%NULL%1,        Bing-Hong%Zhang%NULL%1,        Xiaodong%Huang%NULL%1,        Yufeng%Yuan%NULL%1,        Rohit%Loomba%NULL%1,        Peter P.%Liu%NULL%1,        Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,        Guohui%Xiao%NULL%1,        Juanjuan%Zhang%NULL%1,        Xing%He%NULL%1,        Min%Ou%NULL%1,        Jing%Bi%NULL%1,        Rongqing%Yang%NULL%1,        Wencheng%Di%NULL%1,        Zhaoqin%Wang%NULL%0,        Zigang%Li%NULL%1,        Hong%Gao%NULL%0,        Lei%Liu%NULL%0,        Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,        Yuan%Sun%NULL%2,        Yuan%Sun%NULL%0,        Haolong%Zeng%NULL%2,        Haolong%Zeng%NULL%0,        Qingxing%Wang%NULL%1,        Xiaming%Jiang%NULL%1,        Wei-Juan%Shang%NULL%1,        Yan%Wu%NULL%1,        Shufen%Li%NULL%1,        Yu-Lan%Zhang%NULL%1,        Zhao-Nian%Hao%NULL%1,        Hongbo%Chen%NULL%1,        Runming%Jin%NULL%2,        Runming%Jin%NULL%0,        Wei%Liu%NULL%0,        Hao%Li%lihao_1986@126.com%1,        Ke%Peng%pengke@wh.iov.cn%1,        Gengfu%Xiao%xiaogf@wh.iov.cn%2,        Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,  Yuanyuan%Zhang%xref no email%1,  Yaning%Li%xref no email%1,  Lu%Xia%xref no email%1,  Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,  Xiufang%Wang%xref no email%0,  Jian%Chen%xref no email%0,  Hongmei%Zhang%xref no email%0,  Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,        Yongzhen%Fan%NULL%1,        Ming%Chen%NULL%1,        Xiaoyan%Wu%NULL%1,        Lin%Zhang%NULL%1,        Tao%He%NULL%1,        Hairong%Wang%NULL%1,        Jing%Wan%NULL%1,        Xinghuan%Wang%NULL%0,        Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -805,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -834,7 +945,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -863,7 +974,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -892,7 +1003,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -921,7 +1032,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -944,22 +1055,22 @@
         <v>44013.0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -979,7 +1090,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1008,7 +1119,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1037,7 +1148,7 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1060,22 +1171,22 @@
         <v>43879.0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
         <v>77</v>
@@ -1089,22 +1200,22 @@
         <v>44013.0</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>77</v>
@@ -1124,7 +1235,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="175">
   <si>
     <t>Doi</t>
   </si>
@@ -565,6 +565,78 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,        Yongzhen%Fan%NULL%1,        Ming%Chen%NULL%1,        Xiaoyan%Wu%NULL%1,        Lin%Zhang%NULL%1,        Tao%He%NULL%1,        Hairong%Wang%NULL%1,        Jing%Wan%NULL%1,        Xinghuan%Wang%NULL%0,        Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,         Zeljko%Kraljevic%NULL%1,         Thomas%Searle%NULL%1,         Rebecca%Bendayan%NULL%2,         O'Gallagher%Kevin%NULL%1,         Andrew%Pickles%NULL%1,         Amos%Folarin%NULL%1,         Lukasz%Roguski%NULL%1,         Kawsar%Noor%NULL%1,         Anthony%Shek%NULL%1,         Rosita%Zakeri%NULL%1,         Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,         James T.H.%Teo%jamesteo@nhs.net%2,         Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,         Samrachana%Adhikari%NULL%1,         Claudia%Pulgarin%NULL%1,         Andrea B.%Troxel%NULL%1,         Eduardo%Iturrate%NULL%1,         Stephen B.%Johnson%NULL%1,         Anaïs%Hausvater%NULL%1,         Jonathan D.%Newman%NULL%1,         Jeffrey S.%Berger%NULL%1,         Sripal%Bangalore%NULL%1,         Stuart D.%Katz%NULL%1,         Glenn I.%Fishman%NULL%1,         Dennis%Kunichoff%NULL%1,         Yu%Chen%NULL%1,         Gbenga%Ogedegbe%NULL%1,         Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,         Federico%Rea%NULL%1,         Monica%Ludergnani%NULL%2,         Monica%Ludergnani%NULL%0,         Giovanni%Apolone%NULL%1,         Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,         Sapan S.%Desai%NULL%2,         Sapan S.%Desai%NULL%0,         SreyRam%Kuy%NULL%2,         SreyRam%Kuy%NULL%0,         Timothy D.%Henry%NULL%1,         Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,          J.% Li%null%1,          S.% Yao%null%1,          Q.% Yu%null%1,          W.% Zhou%null%1,          X.% Mao%null%1,          H.% Li%null%1,          W.% Kang%null%1,          X.% Ouyang%null%1,          J.% Mei%null%1,          Q.% Zeng%null%1,          J.% Liu%null%1,          X.% Ma%null%1,          P.% Rong%null%1,          W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,   Zihu%Tan%xref no email%0,   Ling%Zhou%xref no email%0,   Min%Yang%xref no email%0,   Lang%Peng%xref no email%0,   Jinjin%Liu%xref no email%0,   Jingling%Cai%xref no email%0,   Ru%Yang%xref no email%0,   Junyan%Han%xref no email%0,   Yafei%Huang%xref no email%0,   Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,         Lihua%Zhu%NULL%1,         Jingjing%Cai%NULL%1,         Fang%Lei%NULL%1,         Juan-Juan%Qin%NULL%1,         Jing%Xie%NULL%0,         Ye-Mao%Liu%NULL%1,         Yan-Ci%Zhao%NULL%1,         Xuewei%Huang%NULL%1,         Lijin%Lin%NULL%1,         Meng%Xia%NULL%1,         Ming-Ming%Chen%NULL%1,         Xu%Cheng%NULL%1,         Xiao%Zhang%NULL%1,         Deliang%Guo%NULL%1,         Yuanyuan%Peng%NULL%1,         Yan-Xiao%Ji%NULL%1,         Jing%Chen%NULL%0,         Zhi-Gang%She%NULL%1,         Yibin%Wang%NULL%1,         Qingbo%Xu%NULL%1,         Renfu%Tan%NULL%1,         Haitao%Wang%NULL%1,         Jun%Lin%NULL%1,         Pengcheng%Luo%NULL%1,         Shouzhi%Fu%NULL%2,         Hongbin%Cai%NULL%1,         Ping%Ye%NULL%1,         Bing%Xiao%NULL%1,         Weiming%Mao%NULL%1,         Liming%Liu%NULL%1,         Youqin%Yan%NULL%1,         Mingyu%Liu%NULL%1,         Manhua%Chen%NULL%1,         Xiao-Jing%Zhang%NULL%1,         Xinghuan%Wang%NULL%2,         Rhian M.%Touyz%NULL%1,         Jiahong%Xia%NULL%1,         Bing-Hong%Zhang%NULL%1,         Xiaodong%Huang%NULL%1,         Yufeng%Yuan%NULL%1,         Rohit%Loomba%NULL%1,         Peter P.%Liu%NULL%1,         Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,         Guohui%Xiao%NULL%1,         Juanjuan%Zhang%NULL%1,         Xing%He%NULL%1,         Min%Ou%NULL%1,         Jing%Bi%NULL%1,         Rongqing%Yang%NULL%1,         Wencheng%Di%NULL%1,         Zhaoqin%Wang%NULL%0,         Zigang%Li%NULL%1,         Hong%Gao%NULL%0,         Lei%Liu%NULL%0,         Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,         Yuan%Sun%NULL%2,         Yuan%Sun%NULL%0,         Haolong%Zeng%NULL%2,         Haolong%Zeng%NULL%0,         Qingxing%Wang%NULL%1,         Xiaming%Jiang%NULL%1,         Wei-Juan%Shang%NULL%1,         Yan%Wu%NULL%1,         Shufen%Li%NULL%1,         Yu-Lan%Zhang%NULL%1,         Zhao-Nian%Hao%NULL%1,         Hongbo%Chen%NULL%1,         Runming%Jin%NULL%2,         Runming%Jin%NULL%0,         Wei%Liu%NULL%0,         Hao%Li%lihao_1986@126.com%1,         Ke%Peng%pengke@wh.iov.cn%1,         Gengfu%Xiao%xiaogf@wh.iov.cn%2,         Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,   Yuanyuan%Zhang%xref no email%1,   Yaning%Li%xref no email%1,   Lu%Xia%xref no email%1,   Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,   Xiufang%Wang%xref no email%0,   Jian%Chen%xref no email%0,   Hongmei%Zhang%xref no email%0,   Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,         Yongzhen%Fan%NULL%1,         Ming%Chen%NULL%1,         Xiaoyan%Wu%NULL%1,         Lin%Zhang%NULL%1,         Tao%He%NULL%1,         Hairong%Wang%NULL%1,         Jing%Wan%NULL%1,         Xinghuan%Wang%NULL%0,         Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,          Zeljko%Kraljevic%NULL%1,          Thomas%Searle%NULL%1,          Rebecca%Bendayan%NULL%2,          O'Gallagher%Kevin%NULL%1,          Andrew%Pickles%NULL%1,          Amos%Folarin%NULL%1,          Lukasz%Roguski%NULL%1,          Kawsar%Noor%NULL%1,          Anthony%Shek%NULL%1,          Rosita%Zakeri%NULL%1,          Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,          James T.H.%Teo%jamesteo@nhs.net%2,          Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,          Samrachana%Adhikari%NULL%1,          Claudia%Pulgarin%NULL%1,          Andrea B.%Troxel%NULL%1,          Eduardo%Iturrate%NULL%1,          Stephen B.%Johnson%NULL%1,          Anaïs%Hausvater%NULL%1,          Jonathan D.%Newman%NULL%1,          Jeffrey S.%Berger%NULL%1,          Sripal%Bangalore%NULL%1,          Stuart D.%Katz%NULL%1,          Glenn I.%Fishman%NULL%1,          Dennis%Kunichoff%NULL%1,          Yu%Chen%NULL%1,          Gbenga%Ogedegbe%NULL%1,          Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,          Federico%Rea%NULL%1,          Monica%Ludergnani%NULL%2,          Monica%Ludergnani%NULL%0,          Giovanni%Apolone%NULL%1,          Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,          Sapan S.%Desai%NULL%2,          Sapan S.%Desai%NULL%0,          SreyRam%Kuy%NULL%2,          SreyRam%Kuy%NULL%0,          Timothy D.%Henry%NULL%1,          Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,           J.% Li%null%1,           S.% Yao%null%1,           Q.% Yu%null%1,           W.% Zhou%null%1,           X.% Mao%null%1,           H.% Li%null%1,           W.% Kang%null%1,           X.% Ouyang%null%1,           J.% Mei%null%1,           Q.% Zeng%null%1,           J.% Liu%null%1,           X.% Ma%null%1,           P.% Rong%null%1,           W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,    Zihu%Tan%xref no email%0,    Ling%Zhou%xref no email%0,    Min%Yang%xref no email%0,    Lang%Peng%xref no email%0,    Jinjin%Liu%xref no email%0,    Jingling%Cai%xref no email%0,    Ru%Yang%xref no email%0,    Junyan%Han%xref no email%0,    Yafei%Huang%xref no email%0,    Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,          Lihua%Zhu%NULL%1,          Jingjing%Cai%NULL%1,          Fang%Lei%NULL%1,          Juan-Juan%Qin%NULL%1,          Jing%Xie%NULL%0,          Ye-Mao%Liu%NULL%1,          Yan-Ci%Zhao%NULL%1,          Xuewei%Huang%NULL%1,          Lijin%Lin%NULL%1,          Meng%Xia%NULL%1,          Ming-Ming%Chen%NULL%1,          Xu%Cheng%NULL%1,          Xiao%Zhang%NULL%1,          Deliang%Guo%NULL%1,          Yuanyuan%Peng%NULL%1,          Yan-Xiao%Ji%NULL%1,          Jing%Chen%NULL%0,          Zhi-Gang%She%NULL%1,          Yibin%Wang%NULL%1,          Qingbo%Xu%NULL%1,          Renfu%Tan%NULL%1,          Haitao%Wang%NULL%1,          Jun%Lin%NULL%1,          Pengcheng%Luo%NULL%1,          Shouzhi%Fu%NULL%2,          Hongbin%Cai%NULL%1,          Ping%Ye%NULL%1,          Bing%Xiao%NULL%1,          Weiming%Mao%NULL%1,          Liming%Liu%NULL%1,          Youqin%Yan%NULL%1,          Mingyu%Liu%NULL%1,          Manhua%Chen%NULL%1,          Xiao-Jing%Zhang%NULL%1,          Xinghuan%Wang%NULL%2,          Rhian M.%Touyz%NULL%1,          Jiahong%Xia%NULL%1,          Bing-Hong%Zhang%NULL%1,          Xiaodong%Huang%NULL%1,          Yufeng%Yuan%NULL%1,          Rohit%Loomba%NULL%1,          Peter P.%Liu%NULL%1,          Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,          Guohui%Xiao%NULL%1,          Juanjuan%Zhang%NULL%1,          Xing%He%NULL%1,          Min%Ou%NULL%1,          Jing%Bi%NULL%1,          Rongqing%Yang%NULL%1,          Wencheng%Di%NULL%1,          Zhaoqin%Wang%NULL%0,          Zigang%Li%NULL%1,          Hong%Gao%NULL%0,          Lei%Liu%NULL%0,          Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,          Yuan%Sun%NULL%2,          Yuan%Sun%NULL%0,          Haolong%Zeng%NULL%2,          Haolong%Zeng%NULL%0,          Qingxing%Wang%NULL%1,          Xiaming%Jiang%NULL%1,          Wei-Juan%Shang%NULL%1,          Yan%Wu%NULL%1,          Shufen%Li%NULL%1,          Yu-Lan%Zhang%NULL%1,          Zhao-Nian%Hao%NULL%1,          Hongbo%Chen%NULL%1,          Runming%Jin%NULL%2,          Runming%Jin%NULL%0,          Wei%Liu%NULL%0,          Hao%Li%lihao_1986@126.com%1,          Ke%Peng%pengke@wh.iov.cn%1,          Gengfu%Xiao%xiaogf@wh.iov.cn%2,          Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,    Yuanyuan%Zhang%xref no email%1,    Yaning%Li%xref no email%1,    Lu%Xia%xref no email%1,    Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,    Xiufang%Wang%xref no email%0,    Jian%Chen%xref no email%0,    Hongmei%Zhang%xref no email%0,    Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,          Yongzhen%Fan%NULL%1,          Ming%Chen%NULL%1,          Xiaoyan%Wu%NULL%1,          Lin%Zhang%NULL%1,          Tao%He%NULL%1,          Hairong%Wang%NULL%1,          Jing%Wan%NULL%1,          Xinghuan%Wang%NULL%0,          Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -916,7 +988,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -945,7 +1017,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -974,7 +1046,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1003,7 +1075,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1032,7 +1104,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -1061,7 +1133,7 @@
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1090,7 +1162,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1119,7 +1191,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1148,7 +1220,7 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1177,7 +1249,7 @@
         <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1206,7 +1278,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1235,7 +1307,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="200">
   <si>
     <t>Doi</t>
   </si>
@@ -637,6 +637,88 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,          Yongzhen%Fan%NULL%1,          Ming%Chen%NULL%1,          Xiaoyan%Wu%NULL%1,          Lin%Zhang%NULL%1,          Tao%He%NULL%1,          Hairong%Wang%NULL%1,          Jing%Wan%NULL%1,          Xinghuan%Wang%NULL%0,          Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,           Zeljko%Kraljevic%NULL%1,           Thomas%Searle%NULL%1,           Rebecca%Bendayan%NULL%2,           O'Gallagher%Kevin%NULL%1,           Andrew%Pickles%NULL%1,           Amos%Folarin%NULL%1,           Lukasz%Roguski%NULL%1,           Kawsar%Noor%NULL%1,           Anthony%Shek%NULL%1,           Rosita%Zakeri%NULL%1,           Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,           James T.H.%Teo%jamesteo@nhs.net%2,           Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,           Samrachana%Adhikari%NULL%1,           Claudia%Pulgarin%NULL%1,           Andrea B.%Troxel%NULL%1,           Eduardo%Iturrate%NULL%1,           Stephen B.%Johnson%NULL%1,           Anaïs%Hausvater%NULL%1,           Jonathan D.%Newman%NULL%1,           Jeffrey S.%Berger%NULL%1,           Sripal%Bangalore%NULL%1,           Stuart D.%Katz%NULL%1,           Glenn I.%Fishman%NULL%1,           Dennis%Kunichoff%NULL%1,           Yu%Chen%NULL%1,           Gbenga%Ogedegbe%NULL%1,           Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,           Federico%Rea%NULL%1,           Monica%Ludergnani%NULL%2,           Monica%Ludergnani%NULL%0,           Giovanni%Apolone%NULL%1,           Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,           Sapan S.%Desai%NULL%2,           Sapan S.%Desai%NULL%0,           SreyRam%Kuy%NULL%2,           SreyRam%Kuy%NULL%0,           Timothy D.%Henry%NULL%1,           Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,            J.% Li%null%1,            S.% Yao%null%1,            Q.% Yu%null%2,            W.% Zhou%null%1,            X.% Mao%null%1,            H.% Li%null%1,            W.% Kang%null%1,            X.% Ouyang%null%1,            J.% Mei%null%1,            Q.% Zeng%null%1,            J.% Liu%null%1,            X.% Ma%null%1,            P.% Rong%null%1,            W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,     Zihu%Tan%xref no email%0,     Ling%Zhou%xref no email%0,     Min%Yang%xref no email%0,     Lang%Peng%xref no email%0,     Jinjin%Liu%xref no email%0,     Jingling%Cai%xref no email%0,     Ru%Yang%xref no email%0,     Junyan%Han%xref no email%0,     Yafei%Huang%xref no email%0,     Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,           Lihua%Zhu%NULL%1,           Jingjing%Cai%NULL%1,           Fang%Lei%NULL%1,           Juan-Juan%Qin%NULL%1,           Jing%Xie%NULL%0,           Ye-Mao%Liu%NULL%1,           Yan-Ci%Zhao%NULL%1,           Xuewei%Huang%NULL%1,           Lijin%Lin%NULL%1,           Meng%Xia%NULL%1,           Ming-Ming%Chen%NULL%1,           Xu%Cheng%NULL%1,           Xiao%Zhang%NULL%1,           Deliang%Guo%NULL%1,           Yuanyuan%Peng%NULL%1,           Yan-Xiao%Ji%NULL%1,           Jing%Chen%NULL%0,           Zhi-Gang%She%NULL%1,           Yibin%Wang%NULL%1,           Qingbo%Xu%NULL%1,           Renfu%Tan%NULL%1,           Haitao%Wang%NULL%1,           Jun%Lin%NULL%1,           Pengcheng%Luo%NULL%1,           Shouzhi%Fu%NULL%2,           Hongbin%Cai%NULL%1,           Ping%Ye%NULL%1,           Bing%Xiao%NULL%1,           Weiming%Mao%NULL%1,           Liming%Liu%NULL%1,           Youqin%Yan%NULL%1,           Mingyu%Liu%NULL%1,           Manhua%Chen%NULL%1,           Xiao-Jing%Zhang%NULL%1,           Xinghuan%Wang%NULL%2,           Rhian M.%Touyz%NULL%1,           Jiahong%Xia%NULL%1,           Bing-Hong%Zhang%NULL%1,           Xiaodong%Huang%NULL%1,           Yufeng%Yuan%NULL%1,           Rohit%Loomba%NULL%1,           Peter P.%Liu%NULL%1,           Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,           Guohui%Xiao%NULL%1,           Juanjuan%Zhang%NULL%1,           Xing%He%NULL%1,           Min%Ou%NULL%1,           Jing%Bi%NULL%1,           Rongqing%Yang%NULL%1,           Wencheng%Di%NULL%1,           Zhaoqin%Wang%NULL%2,           Zigang%Li%NULL%1,           Hong%Gao%NULL%0,           Lei%Liu%NULL%0,           Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease (COVID-19) caused by the novel severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has now spread to &amp;gt;200 countries posing a global public health concern.
+ Patients with comorbidity, such as hypertension suffer more severe infection with elevated mortality.
+ The development of effective antiviral drugs is in urgent need to treat COVID-19 patients.
+ Here, we report that calcium channel blockers (CCBs), a type of antihypertensive drug that is widely used in clinics, inhibited the post-entry replication events of SARS-CoV-2 in vitro, while no in vitro anti-SARS-CoV-2 effect was observed for the two other major types of antihypertensive drugs, namely, angiotensin-converting enzyme inhibitors and angiotensin II receptor blockers.
+ CCB combined with chloroquine showed a significantly enhanced anti-SARS-CoV-2 efficacy.
+ A retrospective clinical investigation on hospitalized COVID-19 patients with hypertension as the only comorbidity revealed that the CCB amlodipine besylate therapy was associated with a decreased case fatality rate.
+ The results from this study suggest that CCB administration to COVID-19 patients with hypertension as the comorbidity might improve the disease outcome.
+</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,           Yuan%Sun%NULL%2,           Yuan%Sun%NULL%0,           Haolong%Zeng%NULL%2,           Haolong%Zeng%NULL%0,           Qingxing%Wang%NULL%1,           Xiaming%Jiang%NULL%1,           Wei-Juan%Shang%NULL%1,           Yan%Wu%NULL%1,           Shufen%Li%NULL%1,           Yu-Lan%Zhang%NULL%1,           Zhao-Nian%Hao%NULL%1,           Hongbo%Chen%NULL%1,           Runming%Jin%NULL%2,           Runming%Jin%NULL%0,           Wei%Liu%NULL%0,           Hao%Li%lihao_1986@126.com%1,           Ke%Peng%pengke@wh.iov.cn%1,           Gengfu%Xiao%xiaogf@wh.iov.cn%2,           Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,     Yuanyuan%Zhang%xref no email%1,     Yaning%Li%xref no email%1,     Lu%Xia%xref no email%1,     Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,     Xiufang%Wang%xref no email%0,     Jian%Chen%xref no email%0,     Hongmei%Zhang%xref no email%0,     Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,           Yongzhen%Fan%NULL%1,           Ming%Chen%NULL%1,           Xiaoyan%Wu%NULL%1,           Lin%Zhang%NULL%1,           Tao%He%NULL%1,           Hairong%Wang%NULL%1,           Jing%Wan%NULL%1,           Xinghuan%Wang%NULL%0,           Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,            Zeljko%Kraljevic%NULL%1,            Thomas%Searle%NULL%1,            Rebecca%Bendayan%NULL%2,            O'Gallagher%Kevin%NULL%1,            Andrew%Pickles%NULL%1,            Amos%Folarin%NULL%1,            Lukasz%Roguski%NULL%1,            Kawsar%Noor%NULL%1,            Anthony%Shek%NULL%1,            Rosita%Zakeri%NULL%1,            Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,            James T.H.%Teo%jamesteo@nhs.net%2,            Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,            Samrachana%Adhikari%NULL%1,            Claudia%Pulgarin%NULL%1,            Andrea B.%Troxel%NULL%1,            Eduardo%Iturrate%NULL%1,            Stephen B.%Johnson%NULL%1,            Anaïs%Hausvater%NULL%1,            Jonathan D.%Newman%NULL%1,            Jeffrey S.%Berger%NULL%1,            Sripal%Bangalore%NULL%1,            Stuart D.%Katz%NULL%1,            Glenn I.%Fishman%NULL%1,            Dennis%Kunichoff%NULL%1,            Yu%Chen%NULL%1,            Gbenga%Ogedegbe%NULL%1,            Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,            Federico%Rea%NULL%1,            Monica%Ludergnani%NULL%2,            Monica%Ludergnani%NULL%0,            Giovanni%Apolone%NULL%1,            Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,            Sapan S.%Desai%NULL%2,            Sapan S.%Desai%NULL%0,            SreyRam%Kuy%NULL%2,            SreyRam%Kuy%NULL%0,            Timothy D.%Henry%NULL%1,            Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,             J.% Li%null%1,             S.% Yao%null%1,             Q.% Yu%null%1,             W.% Zhou%null%1,             X.% Mao%null%1,             H.% Li%null%1,             W.% Kang%null%1,             X.% Ouyang%null%1,             J.% Mei%null%1,             Q.% Zeng%null%1,             J.% Liu%null%1,             X.% Ma%null%1,             P.% Rong%null%1,             W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,      Zihu%Tan%xref no email%0,      Ling%Zhou%xref no email%0,      Min%Yang%xref no email%0,      Lang%Peng%xref no email%0,      Jinjin%Liu%xref no email%0,      Jingling%Cai%xref no email%0,      Ru%Yang%xref no email%0,      Junyan%Han%xref no email%0,      Yafei%Huang%xref no email%0,      Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,            Lihua%Zhu%NULL%1,            Jingjing%Cai%NULL%1,            Fang%Lei%NULL%1,            Juan-Juan%Qin%NULL%1,            Jing%Xie%NULL%0,            Ye-Mao%Liu%NULL%1,            Yan-Ci%Zhao%NULL%1,            Xuewei%Huang%NULL%1,            Lijin%Lin%NULL%1,            Meng%Xia%NULL%1,            Ming-Ming%Chen%NULL%1,            Xu%Cheng%NULL%1,            Xiao%Zhang%NULL%1,            Deliang%Guo%NULL%1,            Yuanyuan%Peng%NULL%1,            Yan-Xiao%Ji%NULL%1,            Jing%Chen%NULL%0,            Zhi-Gang%She%NULL%1,            Yibin%Wang%NULL%1,            Qingbo%Xu%NULL%1,            Renfu%Tan%NULL%1,            Haitao%Wang%NULL%1,            Jun%Lin%NULL%1,            Pengcheng%Luo%NULL%1,            Shouzhi%Fu%NULL%2,            Hongbin%Cai%NULL%1,            Ping%Ye%NULL%1,            Bing%Xiao%NULL%1,            Weiming%Mao%NULL%1,            Liming%Liu%NULL%1,            Youqin%Yan%NULL%1,            Mingyu%Liu%NULL%1,            Manhua%Chen%NULL%1,            Xiao-Jing%Zhang%NULL%1,            Xinghuan%Wang%NULL%2,            Rhian M.%Touyz%NULL%1,            Jiahong%Xia%NULL%1,            Bing-Hong%Zhang%NULL%1,            Xiaodong%Huang%NULL%1,            Yufeng%Yuan%NULL%1,            Rohit%Loomba%NULL%1,            Peter P.%Liu%NULL%1,            Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,            Guohui%Xiao%NULL%1,            Juanjuan%Zhang%NULL%1,            Xing%He%NULL%1,            Min%Ou%NULL%1,            Jing%Bi%NULL%1,            Rongqing%Yang%NULL%1,            Wencheng%Di%NULL%1,            Zhaoqin%Wang%NULL%2,            Zigang%Li%NULL%1,            Hong%Gao%NULL%0,            Lei%Liu%NULL%0,            Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,            Yuan%Sun%NULL%2,            Yuan%Sun%NULL%0,            Haolong%Zeng%NULL%2,            Haolong%Zeng%NULL%0,            Qingxing%Wang%NULL%1,            Xiaming%Jiang%NULL%1,            Wei-Juan%Shang%NULL%1,            Yan%Wu%NULL%1,            Shufen%Li%NULL%1,            Yu-Lan%Zhang%NULL%1,            Zhao-Nian%Hao%NULL%1,            Hongbo%Chen%NULL%1,            Runming%Jin%NULL%2,            Runming%Jin%NULL%0,            Wei%Liu%NULL%0,            Hao%Li%lihao_1986@126.com%1,            Ke%Peng%pengke@wh.iov.cn%1,            Gengfu%Xiao%xiaogf@wh.iov.cn%2,            Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,      Yuanyuan%Zhang%xref no email%1,      Yaning%Li%xref no email%1,      Lu%Xia%xref no email%1,      Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,      Xiufang%Wang%xref no email%0,      Jian%Chen%xref no email%0,      Hongmei%Zhang%xref no email%0,      Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,            Yongzhen%Fan%NULL%1,            Ming%Chen%NULL%1,            Xiaoyan%Wu%NULL%1,            Lin%Zhang%NULL%1,            Tao%He%NULL%1,            Hairong%Wang%NULL%1,            Jing%Wan%NULL%1,            Xinghuan%Wang%NULL%0,            Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1017,7 +1099,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1046,7 +1128,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1075,7 +1157,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1104,7 +1186,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -1133,7 +1215,7 @@
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1162,7 +1244,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1191,7 +1273,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1217,10 +1299,10 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1249,7 +1331,7 @@
         <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1278,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1307,7 +1389,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="213">
   <si>
     <t>Doi</t>
   </si>
@@ -719,6 +719,45 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,            Yongzhen%Fan%NULL%1,            Ming%Chen%NULL%1,            Xiaoyan%Wu%NULL%1,            Lin%Zhang%NULL%1,            Tao%He%NULL%1,            Hairong%Wang%NULL%1,            Jing%Wan%NULL%1,            Xinghuan%Wang%NULL%0,            Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,             Zeljko%Kraljevic%NULL%1,             Thomas%Searle%NULL%1,             Rebecca%Bendayan%NULL%2,             O'Gallagher%Kevin%NULL%1,             Andrew%Pickles%NULL%1,             Amos%Folarin%NULL%1,             Lukasz%Roguski%NULL%1,             Kawsar%Noor%NULL%1,             Anthony%Shek%NULL%1,             Rosita%Zakeri%NULL%1,             Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,             James T.H.%Teo%jamesteo@nhs.net%2,             Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,             Samrachana%Adhikari%NULL%1,             Claudia%Pulgarin%NULL%1,             Andrea B.%Troxel%NULL%1,             Eduardo%Iturrate%NULL%1,             Stephen B.%Johnson%NULL%1,             Anaïs%Hausvater%NULL%1,             Jonathan D.%Newman%NULL%1,             Jeffrey S.%Berger%NULL%1,             Sripal%Bangalore%NULL%1,             Stuart D.%Katz%NULL%1,             Glenn I.%Fishman%NULL%1,             Dennis%Kunichoff%NULL%1,             Yu%Chen%NULL%1,             Gbenga%Ogedegbe%NULL%1,             Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,             Federico%Rea%NULL%1,             Monica%Ludergnani%NULL%2,             Monica%Ludergnani%NULL%0,             Giovanni%Apolone%NULL%1,             Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,             Sapan S.%Desai%NULL%2,             Sapan S.%Desai%NULL%0,             SreyRam%Kuy%NULL%2,             SreyRam%Kuy%NULL%0,             Timothy D.%Henry%NULL%1,             Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,              J.% Li%null%1,              S.% Yao%null%1,              Q.% Yu%null%1,              W.% Zhou%null%1,              X.% Mao%null%1,              H.% Li%null%1,              W.% Kang%null%1,              X.% Ouyang%null%1,              J.% Mei%null%1,              Q.% Zeng%null%1,              J.% Liu%null%1,              X.% Ma%null%1,              P.% Rong%null%1,              W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,       Zihu%Tan%xref no email%0,       Ling%Zhou%xref no email%0,       Min%Yang%xref no email%0,       Lang%Peng%xref no email%0,       Jinjin%Liu%xref no email%0,       Jingling%Cai%xref no email%0,       Ru%Yang%xref no email%0,       Junyan%Han%xref no email%0,       Yafei%Huang%xref no email%0,       Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,             Lihua%Zhu%NULL%1,             Jingjing%Cai%NULL%1,             Fang%Lei%NULL%1,             Juan-Juan%Qin%NULL%1,             Jing%Xie%NULL%0,             Ye-Mao%Liu%NULL%1,             Yan-Ci%Zhao%NULL%1,             Xuewei%Huang%NULL%1,             Lijin%Lin%NULL%1,             Meng%Xia%NULL%1,             Ming-Ming%Chen%NULL%1,             Xu%Cheng%NULL%1,             Xiao%Zhang%NULL%1,             Deliang%Guo%NULL%1,             Yuanyuan%Peng%NULL%1,             Yan-Xiao%Ji%NULL%1,             Jing%Chen%NULL%0,             Zhi-Gang%She%NULL%1,             Yibin%Wang%NULL%1,             Qingbo%Xu%NULL%1,             Renfu%Tan%NULL%1,             Haitao%Wang%NULL%1,             Jun%Lin%NULL%1,             Pengcheng%Luo%NULL%1,             Shouzhi%Fu%NULL%2,             Hongbin%Cai%NULL%1,             Ping%Ye%NULL%1,             Bing%Xiao%NULL%1,             Weiming%Mao%NULL%1,             Liming%Liu%NULL%1,             Youqin%Yan%NULL%1,             Mingyu%Liu%NULL%1,             Manhua%Chen%NULL%1,             Xiao-Jing%Zhang%NULL%1,             Xinghuan%Wang%NULL%2,             Rhian M.%Touyz%NULL%1,             Jiahong%Xia%NULL%1,             Bing-Hong%Zhang%NULL%1,             Xiaodong%Huang%NULL%1,             Yufeng%Yuan%NULL%1,             Rohit%Loomba%NULL%1,             Peter P.%Liu%NULL%1,             Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,             Guohui%Xiao%NULL%1,             Juanjuan%Zhang%NULL%1,             Xing%He%NULL%1,             Min%Ou%NULL%1,             Jing%Bi%NULL%1,             Rongqing%Yang%NULL%1,             Wencheng%Di%NULL%1,             Zhaoqin%Wang%NULL%2,             Zigang%Li%NULL%1,             Hong%Gao%NULL%0,             Lei%Liu%NULL%0,             Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,             Yuan%Sun%NULL%2,             Yuan%Sun%NULL%0,             Haolong%Zeng%NULL%2,             Haolong%Zeng%NULL%0,             Qingxing%Wang%NULL%1,             Xiaming%Jiang%NULL%1,             Wei-Juan%Shang%NULL%1,             Yan%Wu%NULL%1,             Shufen%Li%NULL%1,             Yu-Lan%Zhang%NULL%1,             Zhao-Nian%Hao%NULL%1,             Hongbo%Chen%NULL%1,             Runming%Jin%NULL%2,             Runming%Jin%NULL%0,             Wei%Liu%NULL%0,             Hao%Li%lihao_1986@126.com%1,             Ke%Peng%pengke@wh.iov.cn%1,             Gengfu%Xiao%xiaogf@wh.iov.cn%2,             Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,       Yuanyuan%Zhang%xref no email%1,       Yaning%Li%xref no email%1,       Lu%Xia%xref no email%1,       Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,       Xiufang%Wang%xref no email%0,       Jian%Chen%xref no email%0,       Hongmei%Zhang%xref no email%0,       Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,             Yongzhen%Fan%NULL%1,             Ming%Chen%NULL%1,             Xiaoyan%Wu%NULL%1,             Lin%Zhang%NULL%1,             Tao%He%NULL%1,             Hairong%Wang%NULL%1,             Jing%Wan%NULL%1,             Xinghuan%Wang%NULL%0,             Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1099,7 +1138,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1128,7 +1167,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1157,7 +1196,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1186,13 +1225,13 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
@@ -1215,7 +1254,7 @@
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1244,7 +1283,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1273,7 +1312,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1302,7 +1341,7 @@
         <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1331,7 +1370,7 @@
         <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1360,7 +1399,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1389,7 +1428,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="225">
   <si>
     <t>Doi</t>
   </si>
@@ -758,6 +758,42 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,             Yongzhen%Fan%NULL%1,             Ming%Chen%NULL%1,             Xiaoyan%Wu%NULL%1,             Lin%Zhang%NULL%1,             Tao%He%NULL%1,             Hairong%Wang%NULL%1,             Jing%Wan%NULL%1,             Xinghuan%Wang%NULL%0,             Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,              Zeljko%Kraljevic%NULL%1,              Thomas%Searle%NULL%1,              Rebecca%Bendayan%NULL%2,              O'Gallagher%Kevin%NULL%1,              Andrew%Pickles%NULL%1,              Amos%Folarin%NULL%1,              Lukasz%Roguski%NULL%1,              Kawsar%Noor%NULL%1,              Anthony%Shek%NULL%1,              Rosita%Zakeri%NULL%1,              Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,              James T.H.%Teo%jamesteo@nhs.net%2,              Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,              Samrachana%Adhikari%NULL%1,              Claudia%Pulgarin%NULL%1,              Andrea B.%Troxel%NULL%1,              Eduardo%Iturrate%NULL%1,              Stephen B.%Johnson%NULL%1,              Anaïs%Hausvater%NULL%1,              Jonathan D.%Newman%NULL%1,              Jeffrey S.%Berger%NULL%1,              Sripal%Bangalore%NULL%1,              Stuart D.%Katz%NULL%1,              Glenn I.%Fishman%NULL%1,              Dennis%Kunichoff%NULL%1,              Yu%Chen%NULL%1,              Gbenga%Ogedegbe%NULL%1,              Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,              Federico%Rea%NULL%1,              Monica%Ludergnani%NULL%2,              Monica%Ludergnani%NULL%0,              Giovanni%Apolone%NULL%1,              Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,              Sapan S.%Desai%NULL%2,              Sapan S.%Desai%NULL%0,              SreyRam%Kuy%NULL%2,              SreyRam%Kuy%NULL%0,              Timothy D.%Henry%NULL%1,              Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,               J.% Li%null%1,               S.% Yao%null%1,               Q.% Yu%null%1,               W.% Zhou%null%1,               X.% Mao%null%1,               H.% Li%null%1,               W.% Kang%null%1,               X.% Ouyang%null%1,               J.% Mei%null%1,               Q.% Zeng%null%1,               J.% Liu%null%1,               X.% Ma%null%1,               P.% Rong%null%1,               W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,        Zihu%Tan%xref no email%0,        Ling%Zhou%xref no email%0,        Min%Yang%xref no email%0,        Lang%Peng%xref no email%0,        Jinjin%Liu%xref no email%0,        Jingling%Cai%xref no email%0,        Ru%Yang%xref no email%0,        Junyan%Han%xref no email%0,        Yafei%Huang%xref no email%0,        Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,              Lihua%Zhu%NULL%1,              Jingjing%Cai%NULL%1,              Fang%Lei%NULL%1,              Juan-Juan%Qin%NULL%1,              Jing%Xie%NULL%0,              Ye-Mao%Liu%NULL%1,              Yan-Ci%Zhao%NULL%1,              Xuewei%Huang%NULL%1,              Lijin%Lin%NULL%1,              Meng%Xia%NULL%1,              Ming-Ming%Chen%NULL%1,              Xu%Cheng%NULL%1,              Xiao%Zhang%NULL%1,              Deliang%Guo%NULL%1,              Yuanyuan%Peng%NULL%1,              Yan-Xiao%Ji%NULL%1,              Jing%Chen%NULL%0,              Zhi-Gang%She%NULL%1,              Yibin%Wang%NULL%1,              Qingbo%Xu%NULL%1,              Renfu%Tan%NULL%1,              Haitao%Wang%NULL%1,              Jun%Lin%NULL%1,              Pengcheng%Luo%NULL%1,              Shouzhi%Fu%NULL%2,              Hongbin%Cai%NULL%1,              Ping%Ye%NULL%1,              Bing%Xiao%NULL%1,              Weiming%Mao%NULL%1,              Liming%Liu%NULL%1,              Youqin%Yan%NULL%1,              Mingyu%Liu%NULL%1,              Manhua%Chen%NULL%1,              Xiao-Jing%Zhang%NULL%1,              Xinghuan%Wang%NULL%2,              Rhian M.%Touyz%NULL%1,              Jiahong%Xia%NULL%1,              Bing-Hong%Zhang%NULL%1,              Xiaodong%Huang%NULL%1,              Yufeng%Yuan%NULL%1,              Rohit%Loomba%NULL%1,              Peter P.%Liu%NULL%1,              Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,              Guohui%Xiao%NULL%1,              Juanjuan%Zhang%NULL%1,              Xing%He%NULL%1,              Min%Ou%NULL%1,              Jing%Bi%NULL%1,              Rongqing%Yang%NULL%1,              Wencheng%Di%NULL%1,              Zhaoqin%Wang%NULL%2,              Zigang%Li%NULL%1,              Hong%Gao%NULL%0,              Lei%Liu%NULL%0,              Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,              Yuan%Sun%NULL%2,              Yuan%Sun%NULL%0,              Haolong%Zeng%NULL%2,              Haolong%Zeng%NULL%0,              Qingxing%Wang%NULL%1,              Xiaming%Jiang%NULL%1,              Wei-Juan%Shang%NULL%1,              Yan%Wu%NULL%1,              Shufen%Li%NULL%1,              Yu-Lan%Zhang%NULL%1,              Zhao-Nian%Hao%NULL%1,              Hongbo%Chen%NULL%1,              Runming%Jin%NULL%2,              Runming%Jin%NULL%0,              Wei%Liu%NULL%0,              Hao%Li%lihao_1986@126.com%1,              Ke%Peng%pengke@wh.iov.cn%1,              Gengfu%Xiao%xiaogf@wh.iov.cn%2,              Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,        Yuanyuan%Zhang%xref no email%1,        Yaning%Li%xref no email%1,        Lu%Xia%xref no email%1,        Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,        Xiufang%Wang%xref no email%0,        Jian%Chen%xref no email%0,        Hongmei%Zhang%xref no email%0,        Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,              Yongzhen%Fan%NULL%1,              Ming%Chen%NULL%1,              Xiaoyan%Wu%NULL%1,              Lin%Zhang%NULL%1,              Tao%He%NULL%1,              Hairong%Wang%NULL%1,              Jing%Wan%NULL%1,              Xinghuan%Wang%NULL%0,              Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1145,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1138,7 +1174,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1167,7 +1203,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1196,7 +1232,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1225,7 +1261,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1254,7 +1290,7 @@
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1283,7 +1319,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1312,7 +1348,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1341,7 +1377,7 @@
         <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1370,7 +1406,7 @@
         <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1399,7 +1435,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1428,7 +1464,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="249">
   <si>
     <t>Doi</t>
   </si>
@@ -794,6 +794,78 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,              Yongzhen%Fan%NULL%1,              Ming%Chen%NULL%1,              Xiaoyan%Wu%NULL%1,              Lin%Zhang%NULL%1,              Tao%He%NULL%1,              Hairong%Wang%NULL%1,              Jing%Wan%NULL%1,              Xinghuan%Wang%NULL%0,              Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,               Zeljko%Kraljevic%NULL%1,               Thomas%Searle%NULL%1,               Rebecca%Bendayan%NULL%2,               O'Gallagher%Kevin%NULL%1,               Andrew%Pickles%NULL%1,               Amos%Folarin%NULL%1,               Lukasz%Roguski%NULL%1,               Kawsar%Noor%NULL%1,               Anthony%Shek%NULL%1,               Rosita%Zakeri%NULL%1,               Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,               James T.H.%Teo%jamesteo@nhs.net%2,               Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,               Samrachana%Adhikari%NULL%1,               Claudia%Pulgarin%NULL%1,               Andrea B.%Troxel%NULL%1,               Eduardo%Iturrate%NULL%1,               Stephen B.%Johnson%NULL%1,               Anaïs%Hausvater%NULL%1,               Jonathan D.%Newman%NULL%1,               Jeffrey S.%Berger%NULL%1,               Sripal%Bangalore%NULL%1,               Stuart D.%Katz%NULL%1,               Glenn I.%Fishman%NULL%1,               Dennis%Kunichoff%NULL%1,               Yu%Chen%NULL%1,               Gbenga%Ogedegbe%NULL%1,               Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,               Federico%Rea%NULL%1,               Monica%Ludergnani%NULL%2,               Monica%Ludergnani%NULL%0,               Giovanni%Apolone%NULL%1,               Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,               Sapan S.%Desai%NULL%2,               Sapan S.%Desai%NULL%0,               SreyRam%Kuy%NULL%2,               SreyRam%Kuy%NULL%0,               Timothy D.%Henry%NULL%1,               Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                J.% Li%null%1,                S.% Yao%null%1,                Q.% Yu%null%1,                W.% Zhou%null%1,                X.% Mao%null%1,                H.% Li%null%1,                W.% Kang%null%1,                X.% Ouyang%null%1,                J.% Mei%null%1,                Q.% Zeng%null%1,                J.% Liu%null%1,                X.% Ma%null%1,                P.% Rong%null%1,                W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,         Zihu%Tan%xref no email%0,         Ling%Zhou%xref no email%0,         Min%Yang%xref no email%0,         Lang%Peng%xref no email%0,         Jinjin%Liu%xref no email%0,         Jingling%Cai%xref no email%0,         Ru%Yang%xref no email%0,         Junyan%Han%xref no email%0,         Yafei%Huang%xref no email%0,         Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,               Lihua%Zhu%NULL%1,               Jingjing%Cai%NULL%1,               Fang%Lei%NULL%1,               Juan-Juan%Qin%NULL%1,               Jing%Xie%NULL%0,               Ye-Mao%Liu%NULL%1,               Yan-Ci%Zhao%NULL%1,               Xuewei%Huang%NULL%1,               Lijin%Lin%NULL%1,               Meng%Xia%NULL%1,               Ming-Ming%Chen%NULL%1,               Xu%Cheng%NULL%1,               Xiao%Zhang%NULL%1,               Deliang%Guo%NULL%1,               Yuanyuan%Peng%NULL%1,               Yan-Xiao%Ji%NULL%1,               Jing%Chen%NULL%0,               Zhi-Gang%She%NULL%1,               Yibin%Wang%NULL%1,               Qingbo%Xu%NULL%1,               Renfu%Tan%NULL%1,               Haitao%Wang%NULL%1,               Jun%Lin%NULL%1,               Pengcheng%Luo%NULL%1,               Shouzhi%Fu%NULL%2,               Hongbin%Cai%NULL%1,               Ping%Ye%NULL%1,               Bing%Xiao%NULL%1,               Weiming%Mao%NULL%1,               Liming%Liu%NULL%1,               Youqin%Yan%NULL%1,               Mingyu%Liu%NULL%1,               Manhua%Chen%NULL%1,               Xiao-Jing%Zhang%NULL%1,               Xinghuan%Wang%NULL%2,               Rhian M.%Touyz%NULL%1,               Jiahong%Xia%NULL%1,               Bing-Hong%Zhang%NULL%1,               Xiaodong%Huang%NULL%1,               Yufeng%Yuan%NULL%1,               Rohit%Loomba%NULL%1,               Peter P.%Liu%NULL%1,               Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,               Guohui%Xiao%NULL%1,               Juanjuan%Zhang%NULL%1,               Xing%He%NULL%1,               Min%Ou%NULL%1,               Jing%Bi%NULL%1,               Rongqing%Yang%NULL%1,               Wencheng%Di%NULL%1,               Zhaoqin%Wang%NULL%2,               Zigang%Li%NULL%1,               Hong%Gao%NULL%0,               Lei%Liu%NULL%0,               Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,               Yuan%Sun%NULL%2,               Yuan%Sun%NULL%0,               Haolong%Zeng%NULL%2,               Haolong%Zeng%NULL%0,               Qingxing%Wang%NULL%1,               Xiaming%Jiang%NULL%1,               Wei-Juan%Shang%NULL%1,               Yan%Wu%NULL%1,               Shufen%Li%NULL%1,               Yu-Lan%Zhang%NULL%1,               Zhao-Nian%Hao%NULL%1,               Hongbo%Chen%NULL%1,               Runming%Jin%NULL%2,               Runming%Jin%NULL%0,               Wei%Liu%NULL%0,               Hao%Li%lihao_1986@126.com%1,               Ke%Peng%pengke@wh.iov.cn%1,               Gengfu%Xiao%xiaogf@wh.iov.cn%2,               Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,         Yuanyuan%Zhang%xref no email%1,         Yaning%Li%xref no email%1,         Lu%Xia%xref no email%1,         Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,         Xiufang%Wang%xref no email%0,         Jian%Chen%xref no email%0,         Hongmei%Zhang%xref no email%0,         Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,               Yongzhen%Fan%NULL%1,               Ming%Chen%NULL%1,               Xiaoyan%Wu%NULL%1,               Lin%Zhang%NULL%1,               Tao%He%NULL%1,               Hairong%Wang%NULL%1,               Jing%Wan%NULL%1,               Xinghuan%Wang%NULL%0,               Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                Zeljko%Kraljevic%NULL%1,                Thomas%Searle%NULL%1,                Rebecca%Bendayan%NULL%2,                O'Gallagher%Kevin%NULL%1,                Andrew%Pickles%NULL%1,                Amos%Folarin%NULL%1,                Lukasz%Roguski%NULL%1,                Kawsar%Noor%NULL%1,                Anthony%Shek%NULL%1,                Rosita%Zakeri%NULL%1,                Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                James T.H.%Teo%jamesteo@nhs.net%2,                Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                Samrachana%Adhikari%NULL%1,                Claudia%Pulgarin%NULL%1,                Andrea B.%Troxel%NULL%1,                Eduardo%Iturrate%NULL%1,                Stephen B.%Johnson%NULL%1,                Anaïs%Hausvater%NULL%1,                Jonathan D.%Newman%NULL%1,                Jeffrey S.%Berger%NULL%1,                Sripal%Bangalore%NULL%1,                Stuart D.%Katz%NULL%1,                Glenn I.%Fishman%NULL%1,                Dennis%Kunichoff%NULL%1,                Yu%Chen%NULL%1,                Gbenga%Ogedegbe%NULL%1,                Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                Federico%Rea%NULL%1,                Monica%Ludergnani%NULL%2,                Monica%Ludergnani%NULL%0,                Giovanni%Apolone%NULL%1,                Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                Sapan S.%Desai%NULL%2,                Sapan S.%Desai%NULL%0,                SreyRam%Kuy%NULL%2,                SreyRam%Kuy%NULL%0,                Timothy D.%Henry%NULL%1,                Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                 J.% Li%null%1,                 S.% Yao%null%1,                 Q.% Yu%null%1,                 W.% Zhou%null%1,                 X.% Mao%null%1,                 H.% Li%null%1,                 W.% Kang%null%1,                 X.% Ouyang%null%1,                 J.% Mei%null%1,                 Q.% Zeng%null%1,                 J.% Liu%null%1,                 X.% Ma%null%1,                 P.% Rong%null%1,                 W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,          Zihu%Tan%xref no email%0,          Ling%Zhou%xref no email%0,          Min%Yang%xref no email%0,          Lang%Peng%xref no email%0,          Jinjin%Liu%xref no email%0,          Jingling%Cai%xref no email%0,          Ru%Yang%xref no email%0,          Junyan%Han%xref no email%0,          Yafei%Huang%xref no email%0,          Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                Lihua%Zhu%NULL%1,                Jingjing%Cai%NULL%1,                Fang%Lei%NULL%1,                Juan-Juan%Qin%NULL%1,                Jing%Xie%NULL%0,                Ye-Mao%Liu%NULL%1,                Yan-Ci%Zhao%NULL%1,                Xuewei%Huang%NULL%1,                Lijin%Lin%NULL%1,                Meng%Xia%NULL%1,                Ming-Ming%Chen%NULL%1,                Xu%Cheng%NULL%1,                Xiao%Zhang%NULL%1,                Deliang%Guo%NULL%1,                Yuanyuan%Peng%NULL%1,                Yan-Xiao%Ji%NULL%1,                Jing%Chen%NULL%0,                Zhi-Gang%She%NULL%1,                Yibin%Wang%NULL%1,                Qingbo%Xu%NULL%1,                Renfu%Tan%NULL%1,                Haitao%Wang%NULL%1,                Jun%Lin%NULL%1,                Pengcheng%Luo%NULL%1,                Shouzhi%Fu%NULL%2,                Hongbin%Cai%NULL%1,                Ping%Ye%NULL%1,                Bing%Xiao%NULL%1,                Weiming%Mao%NULL%1,                Liming%Liu%NULL%1,                Youqin%Yan%NULL%1,                Mingyu%Liu%NULL%1,                Manhua%Chen%NULL%1,                Xiao-Jing%Zhang%NULL%1,                Xinghuan%Wang%NULL%2,                Rhian M.%Touyz%NULL%1,                Jiahong%Xia%NULL%1,                Bing-Hong%Zhang%NULL%1,                Xiaodong%Huang%NULL%1,                Yufeng%Yuan%NULL%1,                Rohit%Loomba%NULL%1,                Peter P.%Liu%NULL%1,                Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                Guohui%Xiao%NULL%1,                Juanjuan%Zhang%NULL%1,                Xing%He%NULL%1,                Min%Ou%NULL%1,                Jing%Bi%NULL%1,                Rongqing%Yang%NULL%1,                Wencheng%Di%NULL%1,                Zhaoqin%Wang%NULL%2,                Zigang%Li%NULL%1,                Hong%Gao%NULL%0,                Lei%Liu%NULL%0,                Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                Yuan%Sun%NULL%2,                Yuan%Sun%NULL%0,                Haolong%Zeng%NULL%2,                Haolong%Zeng%NULL%0,                Qingxing%Wang%NULL%1,                Xiaming%Jiang%NULL%1,                Wei-Juan%Shang%NULL%1,                Yan%Wu%NULL%1,                Shufen%Li%NULL%1,                Yu-Lan%Zhang%NULL%1,                Zhao-Nian%Hao%NULL%1,                Hongbo%Chen%NULL%1,                Runming%Jin%NULL%2,                Runming%Jin%NULL%0,                Wei%Liu%NULL%0,                Hao%Li%lihao_1986@126.com%1,                Ke%Peng%pengke@wh.iov.cn%1,                Gengfu%Xiao%xiaogf@wh.iov.cn%2,                Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,          Yuanyuan%Zhang%xref no email%1,          Yaning%Li%xref no email%1,          Lu%Xia%xref no email%1,          Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,          Xiufang%Wang%xref no email%0,          Jian%Chen%xref no email%0,          Hongmei%Zhang%xref no email%0,          Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                Yongzhen%Fan%NULL%1,                Ming%Chen%NULL%1,                Xiaoyan%Wu%NULL%1,                Lin%Zhang%NULL%1,                Tao%He%NULL%1,                Hairong%Wang%NULL%1,                Jing%Wan%NULL%1,                Xinghuan%Wang%NULL%0,                Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1174,7 +1246,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1203,7 +1275,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1232,7 +1304,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1261,7 +1333,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1290,7 +1362,7 @@
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1319,7 +1391,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1348,7 +1420,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1377,7 +1449,7 @@
         <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1406,7 +1478,7 @@
         <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1435,7 +1507,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1464,7 +1536,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="261">
   <si>
     <t>Doi</t>
   </si>
@@ -866,6 +866,42 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,                Yongzhen%Fan%NULL%1,                Ming%Chen%NULL%1,                Xiaoyan%Wu%NULL%1,                Lin%Zhang%NULL%1,                Tao%He%NULL%1,                Hairong%Wang%NULL%1,                Jing%Wan%NULL%1,                Xinghuan%Wang%NULL%0,                Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                 Zeljko%Kraljevic%NULL%1,                 Thomas%Searle%NULL%1,                 Rebecca%Bendayan%NULL%2,                 O'Gallagher%Kevin%NULL%1,                 Andrew%Pickles%NULL%1,                 Amos%Folarin%NULL%1,                 Lukasz%Roguski%NULL%1,                 Kawsar%Noor%NULL%1,                 Anthony%Shek%NULL%1,                 Rosita%Zakeri%NULL%1,                 Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                 James T.H.%Teo%jamesteo@nhs.net%2,                 Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                 Samrachana%Adhikari%NULL%1,                 Claudia%Pulgarin%NULL%1,                 Andrea B.%Troxel%NULL%1,                 Eduardo%Iturrate%NULL%1,                 Stephen B.%Johnson%NULL%1,                 Anaïs%Hausvater%NULL%1,                 Jonathan D.%Newman%NULL%1,                 Jeffrey S.%Berger%NULL%1,                 Sripal%Bangalore%NULL%1,                 Stuart D.%Katz%NULL%1,                 Glenn I.%Fishman%NULL%1,                 Dennis%Kunichoff%NULL%1,                 Yu%Chen%NULL%1,                 Gbenga%Ogedegbe%NULL%1,                 Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                 Federico%Rea%NULL%1,                 Monica%Ludergnani%NULL%2,                 Monica%Ludergnani%NULL%0,                 Giovanni%Apolone%NULL%1,                 Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                 Sapan S.%Desai%NULL%2,                 Sapan S.%Desai%NULL%0,                 SreyRam%Kuy%NULL%2,                 SreyRam%Kuy%NULL%0,                 Timothy D.%Henry%NULL%1,                 Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                  J.% Li%null%1,                  S.% Yao%null%1,                  Q.% Yu%null%1,                  W.% Zhou%null%1,                  X.% Mao%null%1,                  H.% Li%null%1,                  W.% Kang%null%1,                  X.% Ouyang%null%1,                  J.% Mei%null%1,                  Q.% Zeng%null%1,                  J.% Liu%null%1,                  X.% Ma%null%1,                  P.% Rong%null%1,                  W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,           Zihu%Tan%xref no email%0,           Ling%Zhou%xref no email%0,           Min%Yang%xref no email%0,           Lang%Peng%xref no email%0,           Jinjin%Liu%xref no email%0,           Jingling%Cai%xref no email%0,           Ru%Yang%xref no email%0,           Junyan%Han%xref no email%0,           Yafei%Huang%xref no email%0,           Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                 Lihua%Zhu%NULL%1,                 Jingjing%Cai%NULL%1,                 Fang%Lei%NULL%1,                 Juan-Juan%Qin%NULL%1,                 Jing%Xie%NULL%0,                 Ye-Mao%Liu%NULL%1,                 Yan-Ci%Zhao%NULL%1,                 Xuewei%Huang%NULL%1,                 Lijin%Lin%NULL%1,                 Meng%Xia%NULL%1,                 Ming-Ming%Chen%NULL%1,                 Xu%Cheng%NULL%1,                 Xiao%Zhang%NULL%1,                 Deliang%Guo%NULL%1,                 Yuanyuan%Peng%NULL%1,                 Yan-Xiao%Ji%NULL%1,                 Jing%Chen%NULL%0,                 Zhi-Gang%She%NULL%1,                 Yibin%Wang%NULL%1,                 Qingbo%Xu%NULL%1,                 Renfu%Tan%NULL%1,                 Haitao%Wang%NULL%1,                 Jun%Lin%NULL%1,                 Pengcheng%Luo%NULL%1,                 Shouzhi%Fu%NULL%2,                 Hongbin%Cai%NULL%1,                 Ping%Ye%NULL%1,                 Bing%Xiao%NULL%1,                 Weiming%Mao%NULL%1,                 Liming%Liu%NULL%1,                 Youqin%Yan%NULL%1,                 Mingyu%Liu%NULL%1,                 Manhua%Chen%NULL%1,                 Xiao-Jing%Zhang%NULL%1,                 Xinghuan%Wang%NULL%2,                 Rhian M.%Touyz%NULL%1,                 Jiahong%Xia%NULL%1,                 Bing-Hong%Zhang%NULL%1,                 Xiaodong%Huang%NULL%1,                 Yufeng%Yuan%NULL%1,                 Rohit%Loomba%NULL%1,                 Peter P.%Liu%NULL%1,                 Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                 Guohui%Xiao%NULL%1,                 Juanjuan%Zhang%NULL%1,                 Xing%He%NULL%1,                 Min%Ou%NULL%1,                 Jing%Bi%NULL%1,                 Rongqing%Yang%NULL%1,                 Wencheng%Di%NULL%1,                 Zhaoqin%Wang%NULL%2,                 Zigang%Li%NULL%1,                 Hong%Gao%NULL%0,                 Lei%Liu%NULL%0,                 Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                 Yuan%Sun%NULL%2,                 Yuan%Sun%NULL%0,                 Haolong%Zeng%NULL%2,                 Haolong%Zeng%NULL%0,                 Qingxing%Wang%NULL%1,                 Xiaming%Jiang%NULL%1,                 Wei-Juan%Shang%NULL%1,                 Yan%Wu%NULL%1,                 Shufen%Li%NULL%1,                 Yu-Lan%Zhang%NULL%1,                 Zhao-Nian%Hao%NULL%1,                 Hongbo%Chen%NULL%1,                 Runming%Jin%NULL%2,                 Runming%Jin%NULL%0,                 Wei%Liu%NULL%0,                 Hao%Li%lihao_1986@126.com%1,                 Ke%Peng%pengke@wh.iov.cn%1,                 Gengfu%Xiao%xiaogf@wh.iov.cn%2,                 Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,           Yuanyuan%Zhang%xref no email%1,           Yaning%Li%xref no email%1,           Lu%Xia%xref no email%1,           Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,           Xiufang%Wang%xref no email%0,           Jian%Chen%xref no email%0,           Hongmei%Zhang%xref no email%0,           Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                 Yongzhen%Fan%NULL%1,                 Ming%Chen%NULL%1,                 Xiaoyan%Wu%NULL%1,                 Lin%Zhang%NULL%1,                 Tao%He%NULL%1,                 Hairong%Wang%NULL%1,                 Jing%Wan%NULL%1,                 Xinghuan%Wang%NULL%0,                 Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1253,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1246,7 +1282,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1275,7 +1311,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1304,7 +1340,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1333,7 +1369,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1362,7 +1398,7 @@
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1391,7 +1427,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1420,7 +1456,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1449,7 +1485,7 @@
         <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1478,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1507,7 +1543,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1536,7 +1572,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="277">
   <si>
     <t>Doi</t>
   </si>
@@ -902,6 +902,54 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,                 Yongzhen%Fan%NULL%1,                 Ming%Chen%NULL%1,                 Xiaoyan%Wu%NULL%1,                 Lin%Zhang%NULL%1,                 Tao%He%NULL%1,                 Hairong%Wang%NULL%1,                 Jing%Wan%NULL%1,                 Xinghuan%Wang%NULL%0,                 Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                  Zeljko%Kraljevic%NULL%1,                  Thomas%Searle%NULL%1,                  Rebecca%Bendayan%NULL%2,                  O'Gallagher%Kevin%NULL%1,                  Andrew%Pickles%NULL%1,                  Amos%Folarin%NULL%1,                  Lukasz%Roguski%NULL%1,                  Kawsar%Noor%NULL%1,                  Anthony%Shek%NULL%1,                  Rosita%Zakeri%NULL%1,                  Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                  James T.H.%Teo%jamesteo@nhs.net%2,                  Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                  Samrachana%Adhikari%NULL%1,                  Claudia%Pulgarin%NULL%1,                  Andrea B.%Troxel%NULL%1,                  Eduardo%Iturrate%NULL%1,                  Stephen B.%Johnson%NULL%1,                  Anaïs%Hausvater%NULL%1,                  Jonathan D.%Newman%NULL%1,                  Jeffrey S.%Berger%NULL%1,                  Sripal%Bangalore%NULL%1,                  Stuart D.%Katz%NULL%1,                  Glenn I.%Fishman%NULL%1,                  Dennis%Kunichoff%NULL%1,                  Yu%Chen%NULL%1,                  Gbenga%Ogedegbe%NULL%1,                  Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                  Federico%Rea%NULL%1,                  Monica%Ludergnani%NULL%2,                  Monica%Ludergnani%NULL%0,                  Giovanni%Apolone%NULL%1,                  Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                  Sapan S.%Desai%NULL%2,                  Sapan S.%Desai%NULL%0,                  SreyRam%Kuy%NULL%2,                  SreyRam%Kuy%NULL%0,                  Timothy D.%Henry%NULL%1,                  Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                   J.% Li%null%1,                   S.% Yao%null%1,                   Q.% Yu%null%1,                   W.% Zhou%null%1,                   X.% Mao%null%1,                   H.% Li%null%1,                   W.% Kang%null%1,                   X.% Ouyang%null%1,                   J.% Mei%null%1,                   Q.% Zeng%null%1,                   J.% Liu%null%1,                   X.% Ma%null%1,                   P.% Rong%null%1,                   W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,            Zihu%Tan%xref no email%0,            Ling%Zhou%xref no email%0,            Min%Yang%xref no email%0,            Lang%Peng%xref no email%0,            Jinjin%Liu%xref no email%0,            Jingling%Cai%xref no email%0,            Ru%Yang%xref no email%0,            Junyan%Han%xref no email%0,            Yafei%Huang%xref no email%0,            Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                  Lihua%Zhu%NULL%1,                  Jingjing%Cai%NULL%1,                  Fang%Lei%NULL%1,                  Juan-Juan%Qin%NULL%1,                  Jing%Xie%NULL%0,                  Ye-Mao%Liu%NULL%1,                  Yan-Ci%Zhao%NULL%1,                  Xuewei%Huang%NULL%1,                  Lijin%Lin%NULL%1,                  Meng%Xia%NULL%1,                  Ming-Ming%Chen%NULL%1,                  Xu%Cheng%NULL%1,                  Xiao%Zhang%NULL%1,                  Deliang%Guo%NULL%1,                  Yuanyuan%Peng%NULL%1,                  Yan-Xiao%Ji%NULL%1,                  Jing%Chen%NULL%0,                  Zhi-Gang%She%NULL%1,                  Yibin%Wang%NULL%1,                  Qingbo%Xu%NULL%1,                  Renfu%Tan%NULL%1,                  Haitao%Wang%NULL%1,                  Jun%Lin%NULL%1,                  Pengcheng%Luo%NULL%1,                  Shouzhi%Fu%NULL%2,                  Hongbin%Cai%NULL%1,                  Ping%Ye%NULL%1,                  Bing%Xiao%NULL%1,                  Weiming%Mao%NULL%1,                  Liming%Liu%NULL%1,                  Youqin%Yan%NULL%1,                  Mingyu%Liu%NULL%1,                  Manhua%Chen%NULL%1,                  Xiao-Jing%Zhang%NULL%1,                  Xinghuan%Wang%NULL%2,                  Rhian M.%Touyz%NULL%1,                  Jiahong%Xia%NULL%1,                  Bing-Hong%Zhang%NULL%1,                  Xiaodong%Huang%NULL%1,                  Yufeng%Yuan%NULL%1,                  Rohit%Loomba%NULL%1,                  Peter P.%Liu%NULL%1,                  Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                  Guohui%Xiao%NULL%1,                  Juanjuan%Zhang%NULL%1,                  Xing%He%NULL%1,                  Min%Ou%NULL%1,                  Jing%Bi%NULL%1,                  Rongqing%Yang%NULL%1,                  Wencheng%Di%NULL%1,                  Zhaoqin%Wang%NULL%2,                  Zigang%Li%NULL%1,                  Hong%Gao%NULL%0,                  Lei%Liu%NULL%0,                  Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                  Yuan%Sun%NULL%2,                  Yuan%Sun%NULL%0,                  Haolong%Zeng%NULL%2,                  Haolong%Zeng%NULL%0,                  Qingxing%Wang%NULL%1,                  Xiaming%Jiang%NULL%1,                  Wei-Juan%Shang%NULL%1,                  Yan%Wu%NULL%1,                  Shufen%Li%NULL%1,                  Yu-Lan%Zhang%NULL%1,                  Zhao-Nian%Hao%NULL%1,                  Hongbo%Chen%NULL%1,                  Runming%Jin%NULL%2,                  Runming%Jin%NULL%0,                  Wei%Liu%NULL%0,                  Hao%Li%lihao_1986@126.com%1,                  Ke%Peng%pengke@wh.iov.cn%1,                  Gengfu%Xiao%xiaogf@wh.iov.cn%2,                  Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,            Yuanyuan%Zhang%xref no email%1,            Yaning%Li%xref no email%1,            Lu%Xia%xref no email%1,            Qiang%Zhou%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,            Xiufang%Wang%xref no email%0,            Jian%Chen%xref no email%0,            Hongmei%Zhang%xref no email%0,            Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                  Yongzhen%Fan%NULL%1,                  Ming%Chen%NULL%1,                  Xiaoyan%Wu%NULL%1,                  Lin%Zhang%NULL%1,                  Tao%He%NULL%1,                  Hairong%Wang%NULL%1,                  Jing%Wan%NULL%1,                  Xinghuan%Wang%NULL%0,                  Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1301,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1265,7 +1313,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">
@@ -1282,7 +1330,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1294,7 +1342,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4">
@@ -1311,7 +1359,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1323,7 +1371,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
@@ -1340,7 +1388,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1352,7 +1400,7 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6">
@@ -1369,7 +1417,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1381,7 +1429,7 @@
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7">
@@ -1398,7 +1446,7 @@
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1410,7 +1458,7 @@
         <v>128</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
@@ -1427,7 +1475,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1439,7 +1487,7 @@
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9">
@@ -1456,7 +1504,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1468,7 +1516,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10">
@@ -1485,7 +1533,7 @@
         <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1497,7 +1545,7 @@
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11">
@@ -1514,7 +1562,7 @@
         <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1526,7 +1574,7 @@
         <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
@@ -1543,7 +1591,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1555,7 +1603,7 @@
         <v>128</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1620,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
@@ -1584,7 +1632,7 @@
         <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="292">
   <si>
     <t>Doi</t>
   </si>
@@ -950,6 +950,51 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,                  Yongzhen%Fan%NULL%1,                  Ming%Chen%NULL%1,                  Xiaoyan%Wu%NULL%1,                  Lin%Zhang%NULL%1,                  Tao%He%NULL%1,                  Hairong%Wang%NULL%1,                  Jing%Wan%NULL%1,                  Xinghuan%Wang%NULL%0,                  Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                   Zeljko%Kraljevic%NULL%1,                   Thomas%Searle%NULL%1,                   Rebecca%Bendayan%NULL%2,                   O'Gallagher%Kevin%NULL%1,                   Andrew%Pickles%NULL%1,                   Amos%Folarin%NULL%1,                   Lukasz%Roguski%NULL%1,                   Kawsar%Noor%NULL%1,                   Anthony%Shek%NULL%1,                   Rosita%Zakeri%NULL%1,                   Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                   James T.H.%Teo%jamesteo@nhs.net%2,                   Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                   Samrachana%Adhikari%NULL%1,                   Claudia%Pulgarin%NULL%1,                   Andrea B.%Troxel%NULL%1,                   Eduardo%Iturrate%NULL%1,                   Stephen B.%Johnson%NULL%1,                   Anaïs%Hausvater%NULL%1,                   Jonathan D.%Newman%NULL%1,                   Jeffrey S.%Berger%NULL%1,                   Sripal%Bangalore%NULL%1,                   Stuart D.%Katz%NULL%1,                   Glenn I.%Fishman%NULL%1,                   Dennis%Kunichoff%NULL%1,                   Yu%Chen%NULL%1,                   Gbenga%Ogedegbe%NULL%1,                   Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                   Federico%Rea%NULL%1,                   Monica%Ludergnani%NULL%2,                   Monica%Ludergnani%NULL%0,                   Giovanni%Apolone%NULL%1,                   Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                   Sapan S.%Desai%NULL%2,                   Sapan S.%Desai%NULL%0,                   SreyRam%Kuy%NULL%2,                   SreyRam%Kuy%NULL%0,                   Timothy D.%Henry%NULL%1,                   Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%2,                    J.% Li%null%1,                    S.% Yao%null%1,                    Q.% Yu%null%1,                    W.% Zhou%null%1,                    X.% Mao%null%1,                    H.% Li%null%1,                    W.% Kang%null%1,                    X.% Ouyang%null%1,                    J.% Mei%null%1,                    Q.% Zeng%null%1,                    J.% Liu%null%1,                    X.% Ma%null%1,                    P.% Rong%null%1,                    W. % Wang%null%1,  Z.%Feng%null%0,  J.% Li%null%2,  S.% Yao%null%1,  Q.% Yu%null%2,  W.% Zhou%null%2,  X.% Mao%null%1,  H.% Li%null%1,  W.% Kang%null%1,  X.% Ouyang%null%1,  J.% Mei%null%1,  Q.% Zeng%null%1,  J.% Liu%null%2,  X.% Ma%null%2,  P.% Rong%null%1,  W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0,             Zihu%Tan%xref no email%0,             Ling%Zhou%xref no email%0,             Min%Yang%xref no email%0,             Lang%Peng%xref no email%0,             Jinjin%Liu%xref no email%0,             Jingling%Cai%xref no email%0,             Ru%Yang%xref no email%0,             Junyan%Han%xref no email%0,             Yafei%Huang%xref no email%0,             Shaobin%He%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                   Lihua%Zhu%NULL%1,                   Jingjing%Cai%NULL%1,                   Fang%Lei%NULL%1,                   Juan-Juan%Qin%NULL%1,                   Jing%Xie%NULL%0,                   Ye-Mao%Liu%NULL%1,                   Yan-Ci%Zhao%NULL%1,                   Xuewei%Huang%NULL%1,                   Lijin%Lin%NULL%1,                   Meng%Xia%NULL%1,                   Ming-Ming%Chen%NULL%1,                   Xu%Cheng%NULL%1,                   Xiao%Zhang%NULL%1,                   Deliang%Guo%NULL%1,                   Yuanyuan%Peng%NULL%1,                   Yan-Xiao%Ji%NULL%1,                   Jing%Chen%NULL%0,                   Zhi-Gang%She%NULL%1,                   Yibin%Wang%NULL%1,                   Qingbo%Xu%NULL%1,                   Renfu%Tan%NULL%1,                   Haitao%Wang%NULL%1,                   Jun%Lin%NULL%1,                   Pengcheng%Luo%NULL%1,                   Shouzhi%Fu%NULL%2,                   Hongbin%Cai%NULL%1,                   Ping%Ye%NULL%1,                   Bing%Xiao%NULL%1,                   Weiming%Mao%NULL%1,                   Liming%Liu%NULL%1,                   Youqin%Yan%NULL%1,                   Mingyu%Liu%NULL%1,                   Manhua%Chen%NULL%1,                   Xiao-Jing%Zhang%NULL%1,                   Xinghuan%Wang%NULL%2,                   Rhian M.%Touyz%NULL%1,                   Jiahong%Xia%NULL%1,                   Bing-Hong%Zhang%NULL%1,                   Xiaodong%Huang%NULL%1,                   Yufeng%Yuan%NULL%1,                   Rohit%Loomba%NULL%1,                   Peter P.%Liu%NULL%1,                   Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                   Guohui%Xiao%NULL%1,                   Juanjuan%Zhang%NULL%1,                   Xing%He%NULL%1,                   Min%Ou%NULL%1,                   Jing%Bi%NULL%1,                   Rongqing%Yang%NULL%1,                   Wencheng%Di%NULL%1,                   Zhaoqin%Wang%NULL%2,                   Zigang%Li%NULL%1,                   Hong%Gao%NULL%0,                   Lei%Liu%NULL%0,                   Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                   Yuan%Sun%NULL%2,                   Yuan%Sun%NULL%0,                   Haolong%Zeng%NULL%2,                   Haolong%Zeng%NULL%0,                   Qingxing%Wang%NULL%1,                   Xiaming%Jiang%NULL%1,                   Wei-Juan%Shang%NULL%1,                   Yan%Wu%NULL%1,                   Shufen%Li%NULL%1,                   Yu-Lan%Zhang%NULL%1,                   Zhao-Nian%Hao%NULL%1,                   Hongbo%Chen%NULL%1,                   Runming%Jin%NULL%2,                   Runming%Jin%NULL%0,                   Wei%Liu%NULL%0,                   Hao%Li%lihao_1986@126.com%1,                   Ke%Peng%pengke@wh.iov.cn%1,                   Gengfu%Xiao%xiaogf@wh.iov.cn%2,                   Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure of dimeric full-length human ACE2 in complex with B0AT1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angiotensin-converting enzyme 2 (ACE2) is the surface receptor for SARS coronavirus (SARS-CoV), directly interacting with the spike glycoprotein (S protein). ACE2 is also suggested to be the receptor for the new coronavirus (2019-nCoV), which is causing a serious epidemic in China manifested with severe respiratory syndrome. B0AT1 (SLC6A19) is a neutral amino acid transporter whose surface expression in intestinal cells requires ACE2. Here we present the 2.9 [A] resolution cryo-EM structure of full-length human ACE2 in complex with B0AT1. The complex, assembled as a dimer of ACE2-B0AT1 heterodimers, exhibits open and closed conformations due to the shifts of the peptidase domains (PDs) of ACE2. A newly resolved Collectrin-like domain (CLD) on ACE2 mediates homo-dimerization. Structural modelling suggests that the ACE2-B0AT1 complex can bind two S proteins simultaneously, providing important clues to the molecular basis for coronavirus recognition and infection. </t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,             Yuanyuan%Zhang%xref no email%1,             Yaning%Li%xref no email%1,             Lu%Xia%xref no email%1,             Qiang%Zhou%xref no email%1,  Q.%Zhou%null%1,  R.% Yan%null%1,  Y.% Zhang%null%2,  Y.% Li%null%4,  L. % Xia%null%1]</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0,             Xiufang%Wang%xref no email%0,             Jian%Chen%xref no email%0,             Hongmei%Zhang%xref no email%0,             Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                   Yongzhen%Fan%NULL%1,                   Ming%Chen%NULL%1,                   Xiaoyan%Wu%NULL%1,                   Lin%Zhang%NULL%1,                   Tao%He%NULL%1,                   Hairong%Wang%NULL%1,                   Jing%Wan%NULL%1,                   Xinghuan%Wang%NULL%0,                   Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1330,7 +1375,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1359,7 +1404,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1388,7 +1433,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1417,7 +1462,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1446,7 +1491,7 @@
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1475,7 +1520,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1504,7 +1549,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1533,7 +1578,7 @@
         <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1556,22 +1601,22 @@
         <v>43879.0</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c r="I11" t="s">
         <v>269</v>
@@ -1591,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1620,7 +1665,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="347">
   <si>
     <t>Doi</t>
   </si>
@@ -995,6 +995,171 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,                   Yongzhen%Fan%NULL%1,                   Ming%Chen%NULL%1,                   Xiaoyan%Wu%NULL%1,                   Lin%Zhang%NULL%1,                   Tao%He%NULL%1,                   Hairong%Wang%NULL%1,                   Jing%Wan%NULL%1,                   Xinghuan%Wang%NULL%0,                   Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                    Zeljko%Kraljevic%NULL%1,                    Thomas%Searle%NULL%1,                    Rebecca%Bendayan%NULL%2,                    O'Gallagher%Kevin%NULL%1,                    Andrew%Pickles%NULL%1,                    Amos%Folarin%NULL%1,                    Lukasz%Roguski%NULL%1,                    Kawsar%Noor%NULL%1,                    Anthony%Shek%NULL%1,                    Rosita%Zakeri%NULL%1,                    Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                    James T.H.%Teo%jamesteo@nhs.net%2,                    Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                    Samrachana%Adhikari%NULL%1,                    Claudia%Pulgarin%NULL%1,                    Andrea B.%Troxel%NULL%1,                    Eduardo%Iturrate%NULL%1,                    Stephen B.%Johnson%NULL%1,                    Anaïs%Hausvater%NULL%1,                    Jonathan D.%Newman%NULL%1,                    Jeffrey S.%Berger%NULL%1,                    Sripal%Bangalore%NULL%1,                    Stuart D.%Katz%NULL%1,                    Glenn I.%Fishman%NULL%1,                    Dennis%Kunichoff%NULL%1,                    Yu%Chen%NULL%1,                    Gbenga%Ogedegbe%NULL%1,                    Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                    Federico%Rea%NULL%1,                    Monica%Ludergnani%NULL%2,                    Monica%Ludergnani%NULL%0,                    Giovanni%Apolone%NULL%1,                    Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                    Sapan S.%Desai%NULL%2,                    Sapan S.%Desai%NULL%0,                    SreyRam%Kuy%NULL%2,                    SreyRam%Kuy%NULL%0,                    Timothy D.%Henry%NULL%1,                    Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                     J.% Li%null%1,                     S.% Yao%null%1,                     Q.% Yu%null%1,                     W.% Zhou%null%1,                     X.% Mao%null%1,                     H.% Li%null%1,                     W.% Kang%null%1,                     X.% Ouyang%null%1,                     J.% Mei%null%1,                     Q.% Zeng%null%1,                     J.% Liu%null%1,                     X.% Ma%null%1,                     P.% Rong%null%1,                     W. % Wang%null%1,   Z.%Feng%null%1,   J.% Li%null%2,   S.% Yao%null%1,   Q.% Yu%null%1,   W.% Zhou%null%2,   X.% Mao%null%1,   H.% Li%null%1,   W.% Kang%null%1,   X.% Ouyang%null%1,   J.% Mei%null%1,   Q.% Zeng%null%1,   J.% Liu%null%2,   X.% Ma%null%2,   P.% Rong%null%1,   W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                    Lihua%Zhu%NULL%1,                    Jingjing%Cai%NULL%1,                    Fang%Lei%NULL%1,                    Juan-Juan%Qin%NULL%1,                    Jing%Xie%NULL%0,                    Ye-Mao%Liu%NULL%1,                    Yan-Ci%Zhao%NULL%1,                    Xuewei%Huang%NULL%1,                    Lijin%Lin%NULL%1,                    Meng%Xia%NULL%1,                    Ming-Ming%Chen%NULL%1,                    Xu%Cheng%NULL%1,                    Xiao%Zhang%NULL%1,                    Deliang%Guo%NULL%1,                    Yuanyuan%Peng%NULL%1,                    Yan-Xiao%Ji%NULL%1,                    Jing%Chen%NULL%0,                    Zhi-Gang%She%NULL%1,                    Yibin%Wang%NULL%1,                    Qingbo%Xu%NULL%1,                    Renfu%Tan%NULL%1,                    Haitao%Wang%NULL%1,                    Jun%Lin%NULL%1,                    Pengcheng%Luo%NULL%1,                    Shouzhi%Fu%NULL%2,                    Hongbin%Cai%NULL%1,                    Ping%Ye%NULL%1,                    Bing%Xiao%NULL%1,                    Weiming%Mao%NULL%1,                    Liming%Liu%NULL%1,                    Youqin%Yan%NULL%1,                    Mingyu%Liu%NULL%1,                    Manhua%Chen%NULL%1,                    Xiao-Jing%Zhang%NULL%1,                    Xinghuan%Wang%NULL%2,                    Rhian M.%Touyz%NULL%1,                    Jiahong%Xia%NULL%1,                    Bing-Hong%Zhang%NULL%1,                    Xiaodong%Huang%NULL%1,                    Yufeng%Yuan%NULL%1,                    Rohit%Loomba%NULL%1,                    Peter P.%Liu%NULL%1,                    Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                    Guohui%Xiao%NULL%1,                    Juanjuan%Zhang%NULL%1,                    Xing%He%NULL%1,                    Min%Ou%NULL%1,                    Jing%Bi%NULL%1,                    Rongqing%Yang%NULL%1,                    Wencheng%Di%NULL%1,                    Zhaoqin%Wang%NULL%2,                    Zigang%Li%NULL%1,                    Hong%Gao%NULL%0,                    Lei%Liu%NULL%0,                    Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                    Yuan%Sun%NULL%2,                    Yuan%Sun%NULL%0,                    Haolong%Zeng%NULL%2,                    Haolong%Zeng%NULL%0,                    Qingxing%Wang%NULL%1,                    Xiaming%Jiang%NULL%1,                    Wei-Juan%Shang%NULL%1,                    Yan%Wu%NULL%1,                    Shufen%Li%NULL%1,                    Yu-Lan%Zhang%NULL%1,                    Zhao-Nian%Hao%NULL%1,                    Hongbo%Chen%NULL%1,                    Runming%Jin%NULL%2,                    Runming%Jin%NULL%0,                    Wei%Liu%NULL%0,                    Hao%Li%lihao_1986@126.com%1,                    Ke%Peng%pengke@wh.iov.cn%1,                    Gengfu%Xiao%xiaogf@wh.iov.cn%2,                    Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,              Yuanyuan%Zhang%xref no email%1,              Yaning%Li%xref no email%1,              Lu%Xia%xref no email%1,              Qiang%Zhou%xref no email%1,   Q.%Zhou%null%1,   R.% Yan%null%1,   Y.% Zhang%null%2,   Y.% Li%null%4,   L. % Xia%null%1]</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                    Yongzhen%Fan%NULL%1,                    Ming%Chen%NULL%1,                    Xiaoyan%Wu%NULL%1,                    Lin%Zhang%NULL%1,                    Tao%He%NULL%1,                    Hairong%Wang%NULL%1,                    Jing%Wan%NULL%1,                    Xinghuan%Wang%NULL%0,                    Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                     Zeljko%Kraljevic%NULL%1,                     Thomas%Searle%NULL%1,                     Rebecca%Bendayan%NULL%2,                     O'Gallagher%Kevin%NULL%1,                     Andrew%Pickles%NULL%1,                     Amos%Folarin%NULL%1,                     Lukasz%Roguski%NULL%1,                     Kawsar%Noor%NULL%1,                     Anthony%Shek%NULL%1,                     Rosita%Zakeri%NULL%1,                     Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                     James T.H.%Teo%jamesteo@nhs.net%2,                     Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                     Samrachana%Adhikari%NULL%1,                     Claudia%Pulgarin%NULL%1,                     Andrea B.%Troxel%NULL%1,                     Eduardo%Iturrate%NULL%1,                     Stephen B.%Johnson%NULL%1,                     Anaïs%Hausvater%NULL%1,                     Jonathan D.%Newman%NULL%1,                     Jeffrey S.%Berger%NULL%1,                     Sripal%Bangalore%NULL%1,                     Stuart D.%Katz%NULL%1,                     Glenn I.%Fishman%NULL%1,                     Dennis%Kunichoff%NULL%1,                     Yu%Chen%NULL%1,                     Gbenga%Ogedegbe%NULL%1,                     Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                     Federico%Rea%NULL%1,                     Monica%Ludergnani%NULL%2,                     Monica%Ludergnani%NULL%0,                     Giovanni%Apolone%NULL%1,                     Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                     Sapan S.%Desai%NULL%2,                     Sapan S.%Desai%NULL%0,                     SreyRam%Kuy%NULL%2,                     SreyRam%Kuy%NULL%0,                     Timothy D.%Henry%NULL%1,                     Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                      J.% Li%null%1,                      S.% Yao%null%1,                      Q.% Yu%null%1,                      W.% Zhou%null%1,                      X.% Mao%null%1,                      H.% Li%null%1,                      W.% Kang%null%1,                      X.% Ouyang%null%1,                      J.% Mei%null%1,                      Q.% Zeng%null%1,                      J.% Liu%null%1,                      X.% Ma%null%1,                      P.% Rong%null%1,                      W. % Wang%null%1,    Z.%Feng%null%1,    J.% Li%null%2,    S.% Yao%null%1,    Q.% Yu%null%1,    W.% Zhou%null%2,    X.% Mao%null%1,    H.% Li%null%1,    W.% Kang%null%1,    X.% Ouyang%null%1,    J.% Mei%null%1,    Q.% Zeng%null%1,    J.% Liu%null%2,    X.% Ma%null%2,    P.% Rong%null%1,    W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                     Lihua%Zhu%NULL%1,                     Jingjing%Cai%NULL%1,                     Fang%Lei%NULL%1,                     Juan-Juan%Qin%NULL%1,                     Jing%Xie%NULL%0,                     Ye-Mao%Liu%NULL%1,                     Yan-Ci%Zhao%NULL%1,                     Xuewei%Huang%NULL%1,                     Lijin%Lin%NULL%1,                     Meng%Xia%NULL%1,                     Ming-Ming%Chen%NULL%1,                     Xu%Cheng%NULL%1,                     Xiao%Zhang%NULL%1,                     Deliang%Guo%NULL%1,                     Yuanyuan%Peng%NULL%1,                     Yan-Xiao%Ji%NULL%1,                     Jing%Chen%NULL%0,                     Zhi-Gang%She%NULL%1,                     Yibin%Wang%NULL%1,                     Qingbo%Xu%NULL%1,                     Renfu%Tan%NULL%1,                     Haitao%Wang%NULL%1,                     Jun%Lin%NULL%1,                     Pengcheng%Luo%NULL%1,                     Shouzhi%Fu%NULL%2,                     Hongbin%Cai%NULL%1,                     Ping%Ye%NULL%1,                     Bing%Xiao%NULL%1,                     Weiming%Mao%NULL%1,                     Liming%Liu%NULL%1,                     Youqin%Yan%NULL%1,                     Mingyu%Liu%NULL%1,                     Manhua%Chen%NULL%1,                     Xiao-Jing%Zhang%NULL%1,                     Xinghuan%Wang%NULL%2,                     Rhian M.%Touyz%NULL%1,                     Jiahong%Xia%NULL%1,                     Bing-Hong%Zhang%NULL%1,                     Xiaodong%Huang%NULL%1,                     Yufeng%Yuan%NULL%1,                     Rohit%Loomba%NULL%1,                     Peter P.%Liu%NULL%1,                     Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                     Guohui%Xiao%NULL%1,                     Juanjuan%Zhang%NULL%1,                     Xing%He%NULL%1,                     Min%Ou%NULL%1,                     Jing%Bi%NULL%1,                     Rongqing%Yang%NULL%1,                     Wencheng%Di%NULL%1,                     Zhaoqin%Wang%NULL%2,                     Zigang%Li%NULL%1,                     Hong%Gao%NULL%0,                     Lei%Liu%NULL%0,                     Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                     Yuan%Sun%NULL%2,                     Yuan%Sun%NULL%0,                     Haolong%Zeng%NULL%2,                     Haolong%Zeng%NULL%0,                     Qingxing%Wang%NULL%1,                     Xiaming%Jiang%NULL%1,                     Wei-Juan%Shang%NULL%1,                     Yan%Wu%NULL%1,                     Shufen%Li%NULL%1,                     Yu-Lan%Zhang%NULL%1,                     Zhao-Nian%Hao%NULL%1,                     Hongbo%Chen%NULL%1,                     Runming%Jin%NULL%2,                     Runming%Jin%NULL%0,                     Wei%Liu%NULL%0,                     Hao%Li%lihao_1986@126.com%1,                     Ke%Peng%pengke@wh.iov.cn%1,                     Gengfu%Xiao%xiaogf@wh.iov.cn%2,                     Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,               Yuanyuan%Zhang%xref no email%1,               Yaning%Li%xref no email%1,               Lu%Xia%xref no email%1,               Qiang%Zhou%xref no email%1,    Q.%Zhou%null%1,    R.% Yan%null%1,    Y.% Zhang%null%2,    Y.% Li%null%4,    L. % Xia%null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                     Yongzhen%Fan%NULL%1,                     Ming%Chen%NULL%1,                     Xiaoyan%Wu%NULL%1,                     Lin%Zhang%NULL%1,                     Tao%He%NULL%1,                     Hairong%Wang%NULL%1,                     Jing%Wan%NULL%1,                     Xinghuan%Wang%NULL%0,                     Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                      Zeljko%Kraljevic%NULL%1,                      Thomas%Searle%NULL%1,                      Rebecca%Bendayan%NULL%2,                      O'Gallagher%Kevin%NULL%1,                      Andrew%Pickles%NULL%1,                      Amos%Folarin%NULL%1,                      Lukasz%Roguski%NULL%1,                      Kawsar%Noor%NULL%1,                      Anthony%Shek%NULL%1,                      Rosita%Zakeri%NULL%1,                      Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                      James T.H.%Teo%jamesteo@nhs.net%2,                      Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                      Samrachana%Adhikari%NULL%1,                      Claudia%Pulgarin%NULL%1,                      Andrea B.%Troxel%NULL%1,                      Eduardo%Iturrate%NULL%1,                      Stephen B.%Johnson%NULL%1,                      Anaïs%Hausvater%NULL%1,                      Jonathan D.%Newman%NULL%1,                      Jeffrey S.%Berger%NULL%1,                      Sripal%Bangalore%NULL%1,                      Stuart D.%Katz%NULL%1,                      Glenn I.%Fishman%NULL%1,                      Dennis%Kunichoff%NULL%1,                      Yu%Chen%NULL%1,                      Gbenga%Ogedegbe%NULL%1,                      Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                      Federico%Rea%NULL%1,                      Monica%Ludergnani%NULL%2,                      Monica%Ludergnani%NULL%0,                      Giovanni%Apolone%NULL%1,                      Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                      Sapan S.%Desai%NULL%2,                      Sapan S.%Desai%NULL%0,                      SreyRam%Kuy%NULL%2,                      SreyRam%Kuy%NULL%0,                      Timothy D.%Henry%NULL%1,                      Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                       J.% Li%null%1,                       S.% Yao%null%1,                       Q.% Yu%null%1,                       W.% Zhou%null%1,                       X.% Mao%null%1,                       H.% Li%null%1,                       W.% Kang%null%1,                       X.% Ouyang%null%1,                       J.% Mei%null%1,                       Q.% Zeng%null%1,                       J.% Liu%null%1,                       X.% Ma%null%1,                       P.% Rong%null%1,                       W. % Wang%null%1,     Z.%Feng%null%1,     J.% Li%null%2,     S.% Yao%null%1,     Q.% Yu%null%1,     W.% Zhou%null%2,     X.% Mao%null%1,     H.% Li%null%1,     W.% Kang%null%1,     X.% Ouyang%null%1,     J.% Mei%null%1,     Q.% Zeng%null%1,     J.% Liu%null%2,     X.% Ma%null%2,     P.% Rong%null%1,     W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                      Lihua%Zhu%NULL%1,                      Jingjing%Cai%NULL%1,                      Fang%Lei%NULL%1,                      Juan-Juan%Qin%NULL%1,                      Jing%Xie%NULL%0,                      Ye-Mao%Liu%NULL%1,                      Yan-Ci%Zhao%NULL%1,                      Xuewei%Huang%NULL%1,                      Lijin%Lin%NULL%1,                      Meng%Xia%NULL%1,                      Ming-Ming%Chen%NULL%1,                      Xu%Cheng%NULL%1,                      Xiao%Zhang%NULL%1,                      Deliang%Guo%NULL%1,                      Yuanyuan%Peng%NULL%1,                      Yan-Xiao%Ji%NULL%1,                      Jing%Chen%NULL%0,                      Zhi-Gang%She%NULL%1,                      Yibin%Wang%NULL%1,                      Qingbo%Xu%NULL%1,                      Renfu%Tan%NULL%1,                      Haitao%Wang%NULL%1,                      Jun%Lin%NULL%1,                      Pengcheng%Luo%NULL%1,                      Shouzhi%Fu%NULL%2,                      Hongbin%Cai%NULL%1,                      Ping%Ye%NULL%1,                      Bing%Xiao%NULL%1,                      Weiming%Mao%NULL%1,                      Liming%Liu%NULL%1,                      Youqin%Yan%NULL%1,                      Mingyu%Liu%NULL%1,                      Manhua%Chen%NULL%1,                      Xiao-Jing%Zhang%NULL%1,                      Xinghuan%Wang%NULL%2,                      Rhian M.%Touyz%NULL%1,                      Jiahong%Xia%NULL%1,                      Bing-Hong%Zhang%NULL%1,                      Xiaodong%Huang%NULL%1,                      Yufeng%Yuan%NULL%1,                      Rohit%Loomba%NULL%1,                      Peter P.%Liu%NULL%1,                      Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                      Guohui%Xiao%NULL%1,                      Juanjuan%Zhang%NULL%1,                      Xing%He%NULL%1,                      Min%Ou%NULL%1,                      Jing%Bi%NULL%1,                      Rongqing%Yang%NULL%1,                      Wencheng%Di%NULL%1,                      Zhaoqin%Wang%NULL%2,                      Zigang%Li%NULL%1,                      Hong%Gao%NULL%0,                      Lei%Liu%NULL%0,                      Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                      Yuan%Sun%NULL%2,                      Yuan%Sun%NULL%0,                      Haolong%Zeng%NULL%2,                      Haolong%Zeng%NULL%0,                      Qingxing%Wang%NULL%1,                      Xiaming%Jiang%NULL%1,                      Wei-Juan%Shang%NULL%1,                      Yan%Wu%NULL%1,                      Shufen%Li%NULL%1,                      Yu-Lan%Zhang%NULL%1,                      Zhao-Nian%Hao%NULL%1,                      Hongbo%Chen%NULL%1,                      Runming%Jin%NULL%2,                      Runming%Jin%NULL%0,                      Wei%Liu%NULL%0,                      Hao%Li%lihao_1986@126.com%1,                      Ke%Peng%pengke@wh.iov.cn%1,                      Gengfu%Xiao%xiaogf@wh.iov.cn%2,                      Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,                Yuanyuan%Zhang%xref no email%1,                Yaning%Li%xref no email%1,                Lu%Xia%xref no email%1,                Qiang%Zhou%xref no email%1,     Q.%Zhou%null%1,     R.% Yan%null%1,     Y.% Zhang%null%2,     Y.% Li%null%4,     L. % Xia%null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                      Yongzhen%Fan%NULL%1,                      Ming%Chen%NULL%1,                      Xiaoyan%Wu%NULL%1,                      Lin%Zhang%NULL%1,                      Tao%He%NULL%1,                      Hairong%Wang%NULL%1,                      Jing%Wan%NULL%1,                      Xinghuan%Wang%NULL%0,                      Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                       Zeljko%Kraljevic%NULL%1,                       Thomas%Searle%NULL%1,                       Rebecca%Bendayan%NULL%2,                       O'Gallagher%Kevin%NULL%1,                       Andrew%Pickles%NULL%1,                       Amos%Folarin%NULL%1,                       Lukasz%Roguski%NULL%1,                       Kawsar%Noor%NULL%1,                       Anthony%Shek%NULL%1,                       Rosita%Zakeri%NULL%1,                       Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                       James T.H.%Teo%jamesteo@nhs.net%2,                       Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                       Samrachana%Adhikari%NULL%1,                       Claudia%Pulgarin%NULL%1,                       Andrea B.%Troxel%NULL%1,                       Eduardo%Iturrate%NULL%1,                       Stephen B.%Johnson%NULL%1,                       Anaïs%Hausvater%NULL%1,                       Jonathan D.%Newman%NULL%1,                       Jeffrey S.%Berger%NULL%1,                       Sripal%Bangalore%NULL%1,                       Stuart D.%Katz%NULL%1,                       Glenn I.%Fishman%NULL%1,                       Dennis%Kunichoff%NULL%1,                       Yu%Chen%NULL%1,                       Gbenga%Ogedegbe%NULL%1,                       Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                       Federico%Rea%NULL%1,                       Monica%Ludergnani%NULL%2,                       Monica%Ludergnani%NULL%0,                       Giovanni%Apolone%NULL%1,                       Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                       Sapan S.%Desai%NULL%2,                       Sapan S.%Desai%NULL%0,                       SreyRam%Kuy%NULL%2,                       SreyRam%Kuy%NULL%0,                       Timothy D.%Henry%NULL%1,                       Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                        J.% Li%null%1,                        S.% Yao%null%1,                        Q.% Yu%null%1,                        W.% Zhou%null%1,                        X.% Mao%null%1,                        H.% Li%null%1,                        W.% Kang%null%1,                        X.% Ouyang%null%1,                        J.% Mei%null%1,                        Q.% Zeng%null%1,                        J.% Liu%null%1,                        X.% Ma%null%1,                        P.% Rong%null%1,                        W. % Wang%null%1,      Z.%Feng%null%1,      J.% Li%null%2,      S.% Yao%null%1,      Q.% Yu%null%1,      W.% Zhou%null%2,      X.% Mao%null%1,      H.% Li%null%1,      W.% Kang%null%1,      X.% Ouyang%null%1,      J.% Mei%null%1,      Q.% Zeng%null%1,      J.% Liu%null%2,      X.% Ma%null%2,      P.% Rong%null%1,      W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                       Lihua%Zhu%NULL%1,                       Jingjing%Cai%NULL%1,                       Fang%Lei%NULL%1,                       Juan-Juan%Qin%NULL%1,                       Jing%Xie%NULL%0,                       Ye-Mao%Liu%NULL%1,                       Yan-Ci%Zhao%NULL%1,                       Xuewei%Huang%NULL%1,                       Lijin%Lin%NULL%1,                       Meng%Xia%NULL%1,                       Ming-Ming%Chen%NULL%1,                       Xu%Cheng%NULL%1,                       Xiao%Zhang%NULL%1,                       Deliang%Guo%NULL%1,                       Yuanyuan%Peng%NULL%1,                       Yan-Xiao%Ji%NULL%1,                       Jing%Chen%NULL%0,                       Zhi-Gang%She%NULL%1,                       Yibin%Wang%NULL%1,                       Qingbo%Xu%NULL%1,                       Renfu%Tan%NULL%1,                       Haitao%Wang%NULL%1,                       Jun%Lin%NULL%1,                       Pengcheng%Luo%NULL%1,                       Shouzhi%Fu%NULL%2,                       Hongbin%Cai%NULL%1,                       Ping%Ye%NULL%1,                       Bing%Xiao%NULL%1,                       Weiming%Mao%NULL%1,                       Liming%Liu%NULL%1,                       Youqin%Yan%NULL%1,                       Mingyu%Liu%NULL%1,                       Manhua%Chen%NULL%1,                       Xiao-Jing%Zhang%NULL%1,                       Xinghuan%Wang%NULL%2,                       Rhian M.%Touyz%NULL%1,                       Jiahong%Xia%NULL%1,                       Bing-Hong%Zhang%NULL%1,                       Xiaodong%Huang%NULL%1,                       Yufeng%Yuan%NULL%1,                       Rohit%Loomba%NULL%1,                       Peter P.%Liu%NULL%1,                       Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                       Guohui%Xiao%NULL%1,                       Juanjuan%Zhang%NULL%1,                       Xing%He%NULL%1,                       Min%Ou%NULL%1,                       Jing%Bi%NULL%1,                       Rongqing%Yang%NULL%1,                       Wencheng%Di%NULL%1,                       Zhaoqin%Wang%NULL%2,                       Zigang%Li%NULL%1,                       Hong%Gao%NULL%0,                       Lei%Liu%NULL%0,                       Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                       Yuan%Sun%NULL%2,                       Yuan%Sun%NULL%0,                       Haolong%Zeng%NULL%2,                       Haolong%Zeng%NULL%0,                       Qingxing%Wang%NULL%1,                       Xiaming%Jiang%NULL%1,                       Wei-Juan%Shang%NULL%1,                       Yan%Wu%NULL%1,                       Shufen%Li%NULL%1,                       Yu-Lan%Zhang%NULL%1,                       Zhao-Nian%Hao%NULL%1,                       Hongbo%Chen%NULL%1,                       Runming%Jin%NULL%2,                       Runming%Jin%NULL%0,                       Wei%Liu%NULL%0,                       Hao%Li%lihao_1986@126.com%1,                       Ke%Peng%pengke@wh.iov.cn%1,                       Gengfu%Xiao%xiaogf@wh.iov.cn%2,                       Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,                 Yuanyuan%Zhang%xref no email%1,                 Yaning%Li%xref no email%1,                 Lu%Xia%xref no email%1,                 Qiang%Zhou%xref no email%1,      Q.%Zhou%null%1,      R.% Yan%null%1,      Y.% Zhang%null%2,      Y.% Li%null%4,      L. % Xia%null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                       Yongzhen%Fan%NULL%1,                       Ming%Chen%NULL%1,                       Xiaoyan%Wu%NULL%1,                       Lin%Zhang%NULL%1,                       Tao%He%NULL%1,                       Hairong%Wang%NULL%1,                       Jing%Wan%NULL%1,                       Xinghuan%Wang%NULL%0,                       Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                        Zeljko%Kraljevic%NULL%1,                        Thomas%Searle%NULL%1,                        Rebecca%Bendayan%NULL%2,                        O'Gallagher%Kevin%NULL%1,                        Andrew%Pickles%NULL%1,                        Amos%Folarin%NULL%1,                        Lukasz%Roguski%NULL%1,                        Kawsar%Noor%NULL%1,                        Anthony%Shek%NULL%1,                        Rosita%Zakeri%NULL%1,                        Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                        James T.H.%Teo%jamesteo@nhs.net%2,                        Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                        Samrachana%Adhikari%NULL%1,                        Claudia%Pulgarin%NULL%1,                        Andrea B.%Troxel%NULL%1,                        Eduardo%Iturrate%NULL%1,                        Stephen B.%Johnson%NULL%1,                        Anaïs%Hausvater%NULL%1,                        Jonathan D.%Newman%NULL%1,                        Jeffrey S.%Berger%NULL%1,                        Sripal%Bangalore%NULL%1,                        Stuart D.%Katz%NULL%1,                        Glenn I.%Fishman%NULL%1,                        Dennis%Kunichoff%NULL%1,                        Yu%Chen%NULL%1,                        Gbenga%Ogedegbe%NULL%1,                        Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                        Federico%Rea%NULL%1,                        Monica%Ludergnani%NULL%2,                        Monica%Ludergnani%NULL%0,                        Giovanni%Apolone%NULL%1,                        Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                        Sapan S.%Desai%NULL%2,                        Sapan S.%Desai%NULL%0,                        SreyRam%Kuy%NULL%2,                        SreyRam%Kuy%NULL%0,                        Timothy D.%Henry%NULL%1,                        Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                         J.% Li%null%1,                         S.% Yao%null%1,                         Q.% Yu%null%1,                         W.% Zhou%null%1,                         X.% Mao%null%1,                         H.% Li%null%1,                         W.% Kang%null%1,                         X.% Ouyang%null%1,                         J.% Mei%null%1,                         Q.% Zeng%null%1,                         J.% Liu%null%1,                         X.% Ma%null%1,                         P.% Rong%null%1,                         W. % Wang%null%1,       Z.%Feng%null%1,       J.% Li%null%2,       S.% Yao%null%1,       Q.% Yu%null%1,       W.% Zhou%null%2,       X.% Mao%null%1,       H.% Li%null%1,       W.% Kang%null%1,       X.% Ouyang%null%1,       J.% Mei%null%1,       Q.% Zeng%null%1,       J.% Liu%null%2,       X.% Ma%null%2,       P.% Rong%null%1,       W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                        Lihua%Zhu%NULL%1,                        Jingjing%Cai%NULL%1,                        Fang%Lei%NULL%1,                        Juan-Juan%Qin%NULL%1,                        Jing%Xie%NULL%0,                        Ye-Mao%Liu%NULL%1,                        Yan-Ci%Zhao%NULL%1,                        Xuewei%Huang%NULL%1,                        Lijin%Lin%NULL%1,                        Meng%Xia%NULL%1,                        Ming-Ming%Chen%NULL%1,                        Xu%Cheng%NULL%1,                        Xiao%Zhang%NULL%1,                        Deliang%Guo%NULL%1,                        Yuanyuan%Peng%NULL%1,                        Yan-Xiao%Ji%NULL%1,                        Jing%Chen%NULL%0,                        Zhi-Gang%She%NULL%1,                        Yibin%Wang%NULL%1,                        Qingbo%Xu%NULL%1,                        Renfu%Tan%NULL%1,                        Haitao%Wang%NULL%1,                        Jun%Lin%NULL%1,                        Pengcheng%Luo%NULL%1,                        Shouzhi%Fu%NULL%2,                        Hongbin%Cai%NULL%1,                        Ping%Ye%NULL%1,                        Bing%Xiao%NULL%1,                        Weiming%Mao%NULL%1,                        Liming%Liu%NULL%1,                        Youqin%Yan%NULL%1,                        Mingyu%Liu%NULL%1,                        Manhua%Chen%NULL%1,                        Xiao-Jing%Zhang%NULL%1,                        Xinghuan%Wang%NULL%2,                        Rhian M.%Touyz%NULL%1,                        Jiahong%Xia%NULL%1,                        Bing-Hong%Zhang%NULL%1,                        Xiaodong%Huang%NULL%1,                        Yufeng%Yuan%NULL%1,                        Rohit%Loomba%NULL%1,                        Peter P.%Liu%NULL%1,                        Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                        Guohui%Xiao%NULL%1,                        Juanjuan%Zhang%NULL%1,                        Xing%He%NULL%1,                        Min%Ou%NULL%1,                        Jing%Bi%NULL%1,                        Rongqing%Yang%NULL%1,                        Wencheng%Di%NULL%1,                        Zhaoqin%Wang%NULL%2,                        Zigang%Li%NULL%1,                        Hong%Gao%NULL%0,                        Lei%Liu%NULL%0,                        Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                        Yuan%Sun%NULL%2,                        Yuan%Sun%NULL%0,                        Haolong%Zeng%NULL%2,                        Haolong%Zeng%NULL%0,                        Qingxing%Wang%NULL%1,                        Xiaming%Jiang%NULL%1,                        Wei-Juan%Shang%NULL%1,                        Yan%Wu%NULL%1,                        Shufen%Li%NULL%1,                        Yu-Lan%Zhang%NULL%1,                        Zhao-Nian%Hao%NULL%1,                        Hongbo%Chen%NULL%1,                        Runming%Jin%NULL%2,                        Runming%Jin%NULL%0,                        Wei%Liu%NULL%0,                        Hao%Li%lihao_1986@126.com%1,                        Ke%Peng%pengke@wh.iov.cn%1,                        Gengfu%Xiao%xiaogf@wh.iov.cn%2,                        Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,                  Yuanyuan%Zhang%xref no email%1,                  Yaning%Li%xref no email%1,                  Lu%Xia%xref no email%1,                  Qiang%Zhou%xref no email%1,       Q.%Zhou%null%1,       R.% Yan%null%1,       Y.% Zhang%null%2,       Y.% Li%null%4,       L. % Xia%null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                        Yongzhen%Fan%NULL%1,                        Ming%Chen%NULL%1,                        Xiaoyan%Wu%NULL%1,                        Lin%Zhang%NULL%1,                        Tao%He%NULL%1,                        Hairong%Wang%NULL%1,                        Jing%Wan%NULL%1,                        Xinghuan%Wang%NULL%0,                        Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1331,6 +1496,9 @@
       <c r="I1" t="s">
         <v>69</v>
       </c>
+      <c r="J1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1346,7 +1514,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1359,6 +1527,9 @@
       </c>
       <c r="I2" t="s">
         <v>262</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1375,7 +1546,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1388,6 +1559,9 @@
       </c>
       <c r="I3" t="s">
         <v>262</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1404,7 +1578,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1417,6 +1591,9 @@
       </c>
       <c r="I4" t="s">
         <v>262</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1433,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1446,6 +1623,9 @@
       </c>
       <c r="I5" t="s">
         <v>262</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1462,7 +1642,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1475,6 +1655,9 @@
       </c>
       <c r="I6" t="s">
         <v>267</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1491,7 +1674,7 @@
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1500,10 +1683,13 @@
         <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>269</v>
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="8">
@@ -1520,7 +1706,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1533,6 +1719,9 @@
       </c>
       <c r="I8" t="s">
         <v>262</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -1549,7 +1738,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1562,6 +1751,9 @@
       </c>
       <c r="I9" t="s">
         <v>262</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -1578,7 +1770,7 @@
         <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1591,6 +1783,9 @@
       </c>
       <c r="I10" t="s">
         <v>273</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1607,7 +1802,7 @@
         <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1620,6 +1815,9 @@
       </c>
       <c r="I11" t="s">
         <v>269</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1636,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1645,10 +1843,13 @@
         <v>127</v>
       </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="I12" t="s">
-        <v>269</v>
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="13">
@@ -1665,7 +1866,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
@@ -1678,6 +1879,9 @@
       </c>
       <c r="I13" t="s">
         <v>262</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/16.xlsx
+++ b/Covid_19_Dataset_and_References/References/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="367">
   <si>
     <t>Doi</t>
   </si>
@@ -1160,6 +1160,66 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,                        Yongzhen%Fan%NULL%1,                        Ming%Chen%NULL%1,                        Xiaoyan%Wu%NULL%1,                        Lin%Zhang%NULL%1,                        Tao%He%NULL%1,                        Hairong%Wang%NULL%1,                        Jing%Wan%NULL%1,                        Xinghuan%Wang%NULL%0,                        Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                         Zeljko%Kraljevic%NULL%1,                         Thomas%Searle%NULL%1,                         Rebecca%Bendayan%NULL%2,                         O'Gallagher%Kevin%NULL%1,                         Andrew%Pickles%NULL%1,                         Amos%Folarin%NULL%1,                         Lukasz%Roguski%NULL%1,                         Kawsar%Noor%NULL%1,                         Anthony%Shek%NULL%1,                         Rosita%Zakeri%NULL%1,                         Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                         James T.H.%Teo%jamesteo@nhs.net%2,                         Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                         Samrachana%Adhikari%NULL%1,                         Claudia%Pulgarin%NULL%1,                         Andrea B.%Troxel%NULL%1,                         Eduardo%Iturrate%NULL%1,                         Stephen B.%Johnson%NULL%1,                         Anaïs%Hausvater%NULL%1,                         Jonathan D.%Newman%NULL%1,                         Jeffrey S.%Berger%NULL%1,                         Sripal%Bangalore%NULL%1,                         Stuart D.%Katz%NULL%1,                         Glenn I.%Fishman%NULL%1,                         Dennis%Kunichoff%NULL%1,                         Yu%Chen%NULL%1,                         Gbenga%Ogedegbe%NULL%1,                         Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                         Federico%Rea%NULL%1,                         Monica%Ludergnani%NULL%2,                         Monica%Ludergnani%NULL%0,                         Giovanni%Apolone%NULL%1,                         Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                         Sapan S.%Desai%NULL%2,                         Sapan S.%Desai%NULL%0,                         SreyRam%Kuy%NULL%2,                         SreyRam%Kuy%NULL%0,                         Timothy D.%Henry%NULL%1,                         Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                          J.% Li%null%1,                          S.% Yao%null%1,                          Q.% Yu%null%1,                          W.% Zhou%null%1,                          X.% Mao%null%1,                          H.% Li%null%1,                          W.% Kang%null%1,                          X.% Ouyang%null%1,                          J.% Mei%null%1,                          Q.% Zeng%null%1,                          J.% Liu%null%1,                          X.% Ma%null%1,                          P.% Rong%null%1,                          W. % Wang%null%1,        Z.%Feng%null%1,        J.% Li%null%2,        S.% Yao%null%1,        Q.% Yu%null%1,        W.% Zhou%null%2,        X.% Mao%null%1,        H.% Li%null%1,        W.% Kang%null%1,        X.% Ouyang%null%1,        J.% Mei%null%1,        Q.% Zeng%null%1,        J.% Liu%null%2,        X.% Ma%null%2,        P.% Rong%null%1,        W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                         Lihua%Zhu%NULL%1,                         Jingjing%Cai%NULL%1,                         Fang%Lei%NULL%1,                         Juan-Juan%Qin%NULL%1,                         Jing%Xie%NULL%0,                         Ye-Mao%Liu%NULL%1,                         Yan-Ci%Zhao%NULL%1,                         Xuewei%Huang%NULL%1,                         Lijin%Lin%NULL%1,                         Meng%Xia%NULL%1,                         Ming-Ming%Chen%NULL%1,                         Xu%Cheng%NULL%1,                         Xiao%Zhang%NULL%1,                         Deliang%Guo%NULL%1,                         Yuanyuan%Peng%NULL%1,                         Yan-Xiao%Ji%NULL%1,                         Jing%Chen%NULL%0,                         Zhi-Gang%She%NULL%1,                         Yibin%Wang%NULL%1,                         Qingbo%Xu%NULL%1,                         Renfu%Tan%NULL%1,                         Haitao%Wang%NULL%1,                         Jun%Lin%NULL%1,                         Pengcheng%Luo%NULL%1,                         Shouzhi%Fu%NULL%2,                         Hongbin%Cai%NULL%1,                         Ping%Ye%NULL%1,                         Bing%Xiao%NULL%1,                         Weiming%Mao%NULL%1,                         Liming%Liu%NULL%1,                         Youqin%Yan%NULL%1,                         Mingyu%Liu%NULL%1,                         Manhua%Chen%NULL%1,                         Xiao-Jing%Zhang%NULL%1,                         Xinghuan%Wang%NULL%2,                         Rhian M.%Touyz%NULL%1,                         Jiahong%Xia%NULL%1,                         Bing-Hong%Zhang%NULL%1,                         Xiaodong%Huang%NULL%1,                         Yufeng%Yuan%NULL%1,                         Rohit%Loomba%NULL%1,                         Peter P.%Liu%NULL%1,                         Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                         Guohui%Xiao%NULL%1,                         Juanjuan%Zhang%NULL%1,                         Xing%He%NULL%1,                         Min%Ou%NULL%1,                         Jing%Bi%NULL%1,                         Rongqing%Yang%NULL%1,                         Wencheng%Di%NULL%1,                         Zhaoqin%Wang%NULL%2,                         Zigang%Li%NULL%1,                         Hong%Gao%NULL%0,                         Lei%Liu%NULL%0,                         Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                         Yuan%Sun%NULL%2,                         Yuan%Sun%NULL%0,                         Haolong%Zeng%NULL%2,                         Haolong%Zeng%NULL%0,                         Qingxing%Wang%NULL%1,                         Xiaming%Jiang%NULL%1,                         Wei-Juan%Shang%NULL%1,                         Yan%Wu%NULL%1,                         Shufen%Li%NULL%1,                         Yu-Lan%Zhang%NULL%1,                         Zhao-Nian%Hao%NULL%1,                         Hongbo%Chen%NULL%1,                         Runming%Jin%NULL%2,                         Runming%Jin%NULL%0,                         Wei%Liu%NULL%0,                         Hao%Li%lihao_1986@126.com%1,                         Ke%Peng%pengke@wh.iov.cn%1,                         Gengfu%Xiao%xiaogf@wh.iov.cn%2,                         Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,                   Yuanyuan%Zhang%xref no email%1,                   Yaning%Li%xref no email%1,                   Lu%Xia%xref no email%1,                   Qiang%Zhou%xref no email%1,        Q.%Zhou%null%1,        R.% Yan%null%1,        Y.% Zhang%null%2,        Y.% Li%null%4,        L. % Xia%null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                         Yongzhen%Fan%NULL%1,                         Ming%Chen%NULL%1,                         Xiaoyan%Wu%NULL%1,                         Lin%Zhang%NULL%1,                         Tao%He%NULL%1,                         Hairong%Wang%NULL%1,                         Jing%Wan%NULL%1,                         Xinghuan%Wang%NULL%0,                         Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                          Zeljko%Kraljevic%NULL%1,                          Thomas%Searle%NULL%1,                          Rebecca%Bendayan%NULL%2,                          O'Gallagher%Kevin%NULL%1,                          Andrew%Pickles%NULL%1,                          Amos%Folarin%NULL%1,                          Lukasz%Roguski%NULL%1,                          Kawsar%Noor%NULL%1,                          Anthony%Shek%NULL%1,                          Rosita%Zakeri%NULL%1,                          Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                          James T.H.%Teo%jamesteo@nhs.net%2,                          Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                          Samrachana%Adhikari%NULL%1,                          Claudia%Pulgarin%NULL%1,                          Andrea B.%Troxel%NULL%1,                          Eduardo%Iturrate%NULL%1,                          Stephen B.%Johnson%NULL%1,                          Anaïs%Hausvater%NULL%1,                          Jonathan D.%Newman%NULL%1,                          Jeffrey S.%Berger%NULL%1,                          Sripal%Bangalore%NULL%1,                          Stuart D.%Katz%NULL%1,                          Glenn I.%Fishman%NULL%1,                          Dennis%Kunichoff%NULL%1,                          Yu%Chen%NULL%1,                          Gbenga%Ogedegbe%NULL%1,                          Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                          Federico%Rea%NULL%1,                          Monica%Ludergnani%NULL%2,                          Monica%Ludergnani%NULL%0,                          Giovanni%Apolone%NULL%1,                          Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                          Sapan S.%Desai%NULL%2,                          Sapan S.%Desai%NULL%0,                          SreyRam%Kuy%NULL%2,                          SreyRam%Kuy%NULL%0,                          Timothy D.%Henry%NULL%1,                          Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Z.%Feng%null%1,                           J.% Li%null%1,                           S.% Yao%null%1,                           Q.% Yu%null%1,                           W.% Zhou%null%1,                           X.% Mao%null%1,                           H.% Li%null%1,                           W.% Kang%null%1,                           X.% Ouyang%null%1,                           J.% Mei%null%1,                           Q.% Zeng%null%1,                           J.% Liu%null%1,                           X.% Ma%null%1,                           P.% Rong%null%1,                           W. % Wang%null%1,         Z.%Feng%null%1,         J.% Li%null%2,         S.% Yao%null%1,         Q.% Yu%null%1,         W.% Zhou%null%2,         X.% Mao%null%1,         H.% Li%null%1,         W.% Kang%null%1,         X.% Ouyang%null%1,         J.% Mei%null%1,         Q.% Zeng%null%1,         J.% Liu%null%2,         X.% Ma%null%2,         P.% Rong%null%1,         W. % Wang%null%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                          Lihua%Zhu%NULL%1,                          Jingjing%Cai%NULL%1,                          Fang%Lei%NULL%1,                          Juan-Juan%Qin%NULL%1,                          Jing%Xie%NULL%0,                          Ye-Mao%Liu%NULL%1,                          Yan-Ci%Zhao%NULL%1,                          Xuewei%Huang%NULL%1,                          Lijin%Lin%NULL%1,                          Meng%Xia%NULL%1,                          Ming-Ming%Chen%NULL%1,                          Xu%Cheng%NULL%1,                          Xiao%Zhang%NULL%1,                          Deliang%Guo%NULL%1,                          Yuanyuan%Peng%NULL%1,                          Yan-Xiao%Ji%NULL%1,                          Jing%Chen%NULL%0,                          Zhi-Gang%She%NULL%1,                          Yibin%Wang%NULL%1,                          Qingbo%Xu%NULL%1,                          Renfu%Tan%NULL%1,                          Haitao%Wang%NULL%1,                          Jun%Lin%NULL%1,                          Pengcheng%Luo%NULL%1,                          Shouzhi%Fu%NULL%2,                          Hongbin%Cai%NULL%1,                          Ping%Ye%NULL%1,                          Bing%Xiao%NULL%1,                          Weiming%Mao%NULL%1,                          Liming%Liu%NULL%1,                          Youqin%Yan%NULL%1,                          Mingyu%Liu%NULL%1,                          Manhua%Chen%NULL%1,                          Xiao-Jing%Zhang%NULL%1,                          Xinghuan%Wang%NULL%2,                          Rhian M.%Touyz%NULL%1,                          Jiahong%Xia%NULL%1,                          Bing-Hong%Zhang%NULL%1,                          Xiaodong%Huang%NULL%1,                          Yufeng%Yuan%NULL%1,                          Rohit%Loomba%NULL%1,                          Peter P.%Liu%NULL%1,                          Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                          Guohui%Xiao%NULL%1,                          Juanjuan%Zhang%NULL%1,                          Xing%He%NULL%1,                          Min%Ou%NULL%1,                          Jing%Bi%NULL%1,                          Rongqing%Yang%NULL%1,                          Wencheng%Di%NULL%1,                          Zhaoqin%Wang%NULL%2,                          Zigang%Li%NULL%1,                          Hong%Gao%NULL%0,                          Lei%Liu%NULL%0,                          Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                          Yuan%Sun%NULL%2,                          Yuan%Sun%NULL%0,                          Haolong%Zeng%NULL%2,                          Haolong%Zeng%NULL%0,                          Qingxing%Wang%NULL%1,                          Xiaming%Jiang%NULL%1,                          Wei-Juan%Shang%NULL%1,                          Yan%Wu%NULL%1,                          Shufen%Li%NULL%1,                          Yu-Lan%Zhang%NULL%1,                          Zhao-Nian%Hao%NULL%1,                          Hongbo%Chen%NULL%1,                          Runming%Jin%NULL%2,                          Runming%Jin%NULL%0,                          Wei%Liu%NULL%0,                          Hao%Li%lihao_1986@126.com%1,                          Ke%Peng%pengke@wh.iov.cn%1,                          Gengfu%Xiao%xiaogf@wh.iov.cn%2,                          Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Renhong%Yan%xref no email%1,                    Yuanyuan%Zhang%xref no email%1,                    Yaning%Li%xref no email%1,                    Lu%Xia%xref no email%1,                    Qiang%Zhou%xref no email%1,         Q.%Zhou%null%1,         R.% Yan%null%1,         Y.% Zhang%null%2,         Y.% Li%null%4,         L. % Xia%null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                          Yongzhen%Fan%NULL%1,                          Ming%Chen%NULL%1,                          Xiaoyan%Wu%NULL%1,                          Lin%Zhang%NULL%1,                          Tao%He%NULL%1,                          Hairong%Wang%NULL%1,                          Jing%Wan%NULL%1,                          Xinghuan%Wang%NULL%0,                          Zhibing%Lu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1574,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1546,7 +1606,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1578,7 +1638,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1610,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1642,7 +1702,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1674,7 +1734,7 @@
         <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1706,7 +1766,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1738,7 +1798,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1770,7 +1830,7 @@
         <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1802,7 +1862,7 @@
         <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1834,7 +1894,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1866,7 +1926,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
